--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_INVINV_AR_50_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_INVINV_AR_50_9.xlsx
@@ -369,202 +369,193 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA24"/>
+  <dimension ref="A1:AZ22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:52">
       <c r="B1" s="1">
-        <v>39400</v>
+        <v>39583</v>
       </c>
       <c r="C1" s="1">
-        <v>39583</v>
+        <v>39765</v>
       </c>
       <c r="D1" s="1">
-        <v>39765</v>
+        <v>39948</v>
       </c>
       <c r="E1" s="1">
-        <v>39948</v>
+        <v>40130</v>
       </c>
       <c r="F1" s="1">
-        <v>40130</v>
+        <v>40310</v>
       </c>
       <c r="G1" s="1">
-        <v>40310</v>
+        <v>40494</v>
       </c>
       <c r="H1" s="1">
-        <v>40494</v>
+        <v>40676</v>
       </c>
       <c r="I1" s="1">
-        <v>40676</v>
+        <v>40862</v>
       </c>
       <c r="J1" s="1">
-        <v>40862</v>
+        <v>41044</v>
       </c>
       <c r="K1" s="1">
-        <v>41044</v>
+        <v>41228</v>
       </c>
       <c r="L1" s="1">
-        <v>41228</v>
+        <v>41409</v>
       </c>
       <c r="M1" s="1">
-        <v>41409</v>
+        <v>41592</v>
       </c>
       <c r="N1" s="1">
-        <v>41592</v>
+        <v>41774</v>
       </c>
       <c r="O1" s="1">
-        <v>41774</v>
+        <v>41957</v>
       </c>
       <c r="P1" s="1">
-        <v>41957</v>
+        <v>42137</v>
       </c>
       <c r="Q1" s="1">
-        <v>42137</v>
+        <v>42321</v>
       </c>
       <c r="R1" s="1">
-        <v>42321</v>
+        <v>42503</v>
       </c>
       <c r="S1" s="1">
-        <v>42503</v>
+        <v>42689</v>
       </c>
       <c r="T1" s="1">
-        <v>42689</v>
+        <v>42867</v>
       </c>
       <c r="U1" s="1">
-        <v>42867</v>
+        <v>43053</v>
       </c>
       <c r="V1" s="1">
-        <v>43053</v>
+        <v>43145</v>
       </c>
       <c r="W1" s="1">
-        <v>43145</v>
+        <v>43235</v>
       </c>
       <c r="X1" s="1">
-        <v>43235</v>
+        <v>43326</v>
       </c>
       <c r="Y1" s="1">
-        <v>43326</v>
+        <v>43418</v>
       </c>
       <c r="Z1" s="1">
-        <v>43418</v>
+        <v>43510</v>
       </c>
       <c r="AA1" s="1">
-        <v>43510</v>
+        <v>43600</v>
       </c>
       <c r="AB1" s="1">
-        <v>43600</v>
+        <v>43691</v>
       </c>
       <c r="AC1" s="1">
-        <v>43691</v>
+        <v>43783</v>
       </c>
       <c r="AD1" s="1">
-        <v>43783</v>
+        <v>43875</v>
       </c>
       <c r="AE1" s="1">
-        <v>43875</v>
+        <v>43966</v>
       </c>
       <c r="AF1" s="1">
-        <v>43966</v>
+        <v>44068</v>
       </c>
       <c r="AG1" s="1">
-        <v>44068</v>
+        <v>44159</v>
       </c>
       <c r="AH1" s="1">
-        <v>44159</v>
+        <v>44251</v>
       </c>
       <c r="AI1" s="1">
-        <v>44251</v>
+        <v>44341</v>
       </c>
       <c r="AJ1" s="1">
-        <v>44341</v>
+        <v>44432</v>
       </c>
       <c r="AK1" s="1">
-        <v>44432</v>
+        <v>44525</v>
       </c>
       <c r="AL1" s="1">
-        <v>44525</v>
+        <v>44617</v>
       </c>
       <c r="AM1" s="1">
-        <v>44617</v>
+        <v>44706</v>
       </c>
       <c r="AN1" s="1">
-        <v>44706</v>
+        <v>44798</v>
       </c>
       <c r="AO1" s="1">
-        <v>44798</v>
+        <v>44890</v>
       </c>
       <c r="AP1" s="1">
-        <v>44890</v>
+        <v>44981</v>
       </c>
       <c r="AQ1" s="1">
-        <v>44981</v>
+        <v>45071</v>
       </c>
       <c r="AR1" s="1">
-        <v>45071</v>
+        <v>45163</v>
       </c>
       <c r="AS1" s="1">
-        <v>45163</v>
+        <v>45254</v>
       </c>
       <c r="AT1" s="1">
-        <v>45254</v>
+        <v>45345</v>
       </c>
       <c r="AU1" s="1">
-        <v>45345</v>
+        <v>45436</v>
       </c>
       <c r="AV1" s="1">
-        <v>45436</v>
+        <v>45534</v>
       </c>
       <c r="AW1" s="1">
-        <v>45534</v>
+        <v>45618</v>
       </c>
       <c r="AX1" s="1">
-        <v>45618</v>
+        <v>45713</v>
       </c>
       <c r="AY1" s="1">
-        <v>45713</v>
+        <v>45800</v>
       </c>
       <c r="AZ1" s="1">
-        <v>45800</v>
-      </c>
-      <c r="BA1" s="1">
         <v>45891</v>
       </c>
     </row>
-    <row r="2" spans="1:53">
+    <row r="2" spans="1:52">
       <c r="A2" s="1">
         <v>39813</v>
       </c>
     </row>
-    <row r="3" spans="1:53">
+    <row r="3" spans="1:52">
       <c r="A3" s="1">
         <v>40178</v>
       </c>
-      <c r="C3">
-        <v>-0.7258201309573775</v>
-      </c>
-      <c r="D3">
-        <v>-0.8922816569862713</v>
-      </c>
       <c r="E3">
-        <v>-1.324983933426882</v>
+        <v>-1.324983933426893</v>
       </c>
       <c r="F3">
-        <v>-1.324983933426882</v>
+        <v>-1.324983933426893</v>
       </c>
       <c r="G3">
-        <v>-1.324983933426882</v>
+        <v>-1.324983933426893</v>
       </c>
       <c r="H3">
-        <v>-1.324983933426882</v>
+        <v>-1.324983933426893</v>
       </c>
       <c r="I3">
-        <v>-1.324983933426882</v>
+        <v>-1.324983933426893</v>
       </c>
       <c r="J3">
-        <v>-1.324983933426882</v>
+        <v>-1.324983933426893</v>
       </c>
       <c r="K3">
         <v>-1.324983933426882</v>
@@ -692,26 +683,11 @@
       <c r="AZ3">
         <v>-1.324983933426882</v>
       </c>
-      <c r="BA3">
-        <v>-1.324983933426882</v>
-      </c>
     </row>
-    <row r="4" spans="1:53">
+    <row r="4" spans="1:52">
       <c r="A4" s="1">
         <v>40543</v>
       </c>
-      <c r="C4">
-        <v>-0.1322410336916269</v>
-      </c>
-      <c r="D4">
-        <v>0.2977489289332613</v>
-      </c>
-      <c r="E4">
-        <v>-0.4252238776383699</v>
-      </c>
-      <c r="F4">
-        <v>-0.0806988647449991</v>
-      </c>
       <c r="G4">
         <v>-0.3900454704678369</v>
       </c>
@@ -850,37 +826,16 @@
       <c r="AZ4">
         <v>-0.3900454704678369</v>
       </c>
-      <c r="BA4">
-        <v>-0.3900454704678369</v>
-      </c>
     </row>
-    <row r="5" spans="1:53">
+    <row r="5" spans="1:52">
       <c r="A5" s="1">
         <v>40908</v>
       </c>
-      <c r="C5">
-        <v>-0.5047962970080144</v>
-      </c>
-      <c r="D5">
-        <v>-0.3955884434705959</v>
-      </c>
-      <c r="E5">
-        <v>-0.4077688887210607</v>
-      </c>
-      <c r="F5">
-        <v>-0.5262318460380944</v>
-      </c>
-      <c r="G5">
-        <v>-0.608538493861166</v>
-      </c>
-      <c r="H5">
-        <v>-0.3552279522900159</v>
-      </c>
       <c r="I5">
-        <v>-0.2995848153489522</v>
+        <v>-0.29958481534893</v>
       </c>
       <c r="J5">
-        <v>-0.2995848153489522</v>
+        <v>-0.29958481534893</v>
       </c>
       <c r="K5">
         <v>-0.2995848153489522</v>
@@ -1008,32 +963,11 @@
       <c r="AZ5">
         <v>-0.2995848153489522</v>
       </c>
-      <c r="BA5">
-        <v>-0.2995848153489522</v>
-      </c>
     </row>
-    <row r="6" spans="1:53">
+    <row r="6" spans="1:52">
       <c r="A6" s="1">
         <v>41274</v>
       </c>
-      <c r="E6">
-        <v>-0.7932465549451262</v>
-      </c>
-      <c r="F6">
-        <v>-0.7081991690208622</v>
-      </c>
-      <c r="G6">
-        <v>-0.01931181940771909</v>
-      </c>
-      <c r="H6">
-        <v>-0.4943399999203346</v>
-      </c>
-      <c r="I6">
-        <v>-0.007565898326467035</v>
-      </c>
-      <c r="J6">
-        <v>-0.1826650432039445</v>
-      </c>
       <c r="K6">
         <v>-0.2075757021743008</v>
       </c>
@@ -1160,31 +1094,16 @@
       <c r="AZ6">
         <v>-0.2075757021743008</v>
       </c>
-      <c r="BA6">
-        <v>-0.2075757021743008</v>
-      </c>
     </row>
-    <row r="7" spans="1:53">
+    <row r="7" spans="1:52">
       <c r="A7" s="1">
         <v>41639</v>
       </c>
-      <c r="G7">
-        <v>-0.6350778476691521</v>
-      </c>
-      <c r="H7">
-        <v>-0.6654322041848681</v>
-      </c>
-      <c r="I7">
-        <v>-0.04453216410581495</v>
-      </c>
-      <c r="J7">
-        <v>-0.4635215381815883</v>
-      </c>
       <c r="K7">
-        <v>0.07493742497184375</v>
+        <v>-0.4223781730902543</v>
       </c>
       <c r="L7">
-        <v>0.09992491247496904</v>
+        <v>-0.06726240733891942</v>
       </c>
       <c r="M7">
         <v>0.124712275190686</v>
@@ -1306,31 +1225,22 @@
       <c r="AZ7">
         <v>0.124712275190686</v>
       </c>
-      <c r="BA7">
-        <v>0.124712275190686</v>
-      </c>
     </row>
-    <row r="8" spans="1:53">
+    <row r="8" spans="1:52">
       <c r="A8" s="1">
         <v>42004</v>
       </c>
-      <c r="I8">
-        <v>-0.4588252398512349</v>
-      </c>
-      <c r="J8">
-        <v>-0.5456310740152959</v>
-      </c>
       <c r="K8">
-        <v>-0.09175050940075646</v>
+        <v>-0.5490886506258952</v>
       </c>
       <c r="L8">
-        <v>-0.01636990546493022</v>
+        <v>-0.4774698422615242</v>
       </c>
       <c r="M8">
-        <v>-0.02565626552746281</v>
+        <v>-0.3577371449824729</v>
       </c>
       <c r="N8">
-        <v>-0.2256049529964055</v>
+        <v>-0.3584575688954428</v>
       </c>
       <c r="O8">
         <v>-0.255298189276465</v>
@@ -1446,31 +1356,25 @@
       <c r="AZ8">
         <v>-0.255298189276465</v>
       </c>
-      <c r="BA8">
-        <v>-0.255298189276465</v>
-      </c>
     </row>
-    <row r="9" spans="1:53">
+    <row r="9" spans="1:52">
       <c r="A9" s="1">
         <v>42369</v>
       </c>
-      <c r="K9">
-        <v>-0.4077293935178861</v>
-      </c>
       <c r="L9">
-        <v>-0.3967059121276151</v>
+        <v>-0.4828982001363724</v>
       </c>
       <c r="M9">
-        <v>0.008010483290266102</v>
+        <v>-0.4292407320315994</v>
       </c>
       <c r="N9">
-        <v>-0.009850626013396813</v>
+        <v>-0.4112436562971</v>
       </c>
       <c r="O9">
-        <v>0.05470007129930732</v>
+        <v>-0.2877346565283379</v>
       </c>
       <c r="P9">
-        <v>0.068498965518482</v>
+        <v>-0.009688851112665819</v>
       </c>
       <c r="Q9">
         <v>0.07418514192796266</v>
@@ -1580,31 +1484,25 @@
       <c r="AZ9">
         <v>0.07418514192796266</v>
       </c>
-      <c r="BA9">
-        <v>0.07418514192796266</v>
-      </c>
     </row>
-    <row r="10" spans="1:53">
+    <row r="10" spans="1:52">
       <c r="A10" s="1">
         <v>42735</v>
       </c>
-      <c r="M10">
-        <v>-0.3384641044282377</v>
-      </c>
       <c r="N10">
-        <v>-0.370003940707242</v>
+        <v>-0.4304242973383055</v>
       </c>
       <c r="O10">
-        <v>-0.1694572785990611</v>
+        <v>-0.3979953014972226</v>
       </c>
       <c r="P10">
-        <v>-0.1392083277555578</v>
+        <v>-0.3537462851234685</v>
       </c>
       <c r="Q10">
-        <v>-0.1118063021044113</v>
+        <v>-0.2097319935285391</v>
       </c>
       <c r="R10">
-        <v>-0.1275185062600492</v>
+        <v>-0.1132037832954791</v>
       </c>
       <c r="S10">
         <v>-0.07611406013281474</v>
@@ -1708,31 +1606,25 @@
       <c r="AZ10">
         <v>-0.07611406013281474</v>
       </c>
-      <c r="BA10">
-        <v>-0.07611406013281474</v>
-      </c>
     </row>
-    <row r="11" spans="1:53">
+    <row r="11" spans="1:52">
       <c r="A11" s="1">
         <v>43100</v>
       </c>
-      <c r="O11">
-        <v>-0.3343406391070891</v>
-      </c>
       <c r="P11">
-        <v>-0.331147694102718</v>
+        <v>-0.3602216788231694</v>
       </c>
       <c r="Q11">
-        <v>-0.1034023518274974</v>
+        <v>-0.3346105473710614</v>
       </c>
       <c r="R11">
-        <v>-0.2684215737683071</v>
+        <v>-0.3204027102583273</v>
       </c>
       <c r="S11">
-        <v>-0.1441854746430216</v>
+        <v>-0.3036570471216304</v>
       </c>
       <c r="T11">
-        <v>-0.2221926054819634</v>
+        <v>-0.2638577853126156</v>
       </c>
       <c r="U11">
         <v>-0.191300579729714</v>
@@ -1830,37 +1722,31 @@
       <c r="AZ11">
         <v>-0.191300579729714</v>
       </c>
-      <c r="BA11">
-        <v>-0.191300579729714</v>
-      </c>
     </row>
-    <row r="12" spans="1:53">
+    <row r="12" spans="1:52">
       <c r="A12" s="1">
         <v>43465</v>
       </c>
-      <c r="Q12">
-        <v>-0.3042666330662525</v>
-      </c>
       <c r="R12">
-        <v>-0.147797717921061</v>
+        <v>-0.3211834654844647</v>
       </c>
       <c r="S12">
-        <v>-0.036708295423582</v>
+        <v>-0.3142097218752804</v>
       </c>
       <c r="T12">
-        <v>-0.1056379786942729</v>
+        <v>-0.3143428957755656</v>
       </c>
       <c r="U12">
-        <v>0.09771527089190712</v>
+        <v>-0.1907914728172644</v>
       </c>
       <c r="V12">
-        <v>0.06531417979365184</v>
+        <v>-0.05059932794906352</v>
       </c>
       <c r="W12">
-        <v>0.1195352120703319</v>
+        <v>0.04166709579394023</v>
       </c>
       <c r="X12">
-        <v>0.1141271696349921</v>
+        <v>0.1246424644191668</v>
       </c>
       <c r="Y12">
         <v>0.0970330232288763</v>
@@ -1946,46 +1832,37 @@
       <c r="AZ12">
         <v>0.0970330232288763</v>
       </c>
-      <c r="BA12">
-        <v>0.0970330232288763</v>
-      </c>
     </row>
-    <row r="13" spans="1:53">
+    <row r="13" spans="1:52">
       <c r="A13" s="1">
         <v>43830</v>
       </c>
-      <c r="R13">
-        <v>-0.3064845504592739</v>
-      </c>
-      <c r="S13">
-        <v>-0.2793655169760489</v>
-      </c>
       <c r="T13">
-        <v>-0.1988131468882659</v>
+        <v>-0.3114748837725667</v>
       </c>
       <c r="U13">
-        <v>-0.06146669636767355</v>
+        <v>-0.293687056619063</v>
       </c>
       <c r="V13">
-        <v>0.1093182318375296</v>
+        <v>-0.2866918525404771</v>
       </c>
       <c r="W13">
-        <v>0.08904591254175198</v>
+        <v>-0.2532926704812977</v>
       </c>
       <c r="X13">
-        <v>-0.1267333805689663</v>
+        <v>-0.1729167731976178</v>
       </c>
       <c r="Y13">
-        <v>-0.1876573326314745</v>
+        <v>-0.2529765062333933</v>
       </c>
       <c r="Z13">
-        <v>-0.7845155491406741</v>
+        <v>-0.567279386573194</v>
       </c>
       <c r="AA13">
-        <v>-0.7781153598125479</v>
+        <v>-0.7671134292608239</v>
       </c>
       <c r="AB13">
-        <v>-0.7251499616078294</v>
+        <v>-0.6865797156070164</v>
       </c>
       <c r="AC13">
         <v>-0.7407518902333265</v>
@@ -2059,52 +1936,40 @@
       <c r="AZ13">
         <v>-0.7407518902333265</v>
       </c>
-      <c r="BA13">
-        <v>-0.7407518902333265</v>
-      </c>
     </row>
-    <row r="14" spans="1:53">
+    <row r="14" spans="1:52">
       <c r="A14" s="1">
         <v>44196</v>
       </c>
-      <c r="T14">
-        <v>-0.2814514683571079</v>
-      </c>
-      <c r="U14">
-        <v>-0.2508732019875004</v>
-      </c>
-      <c r="V14">
-        <v>-0.03025051393774625</v>
-      </c>
       <c r="W14">
-        <v>-0.0005244452638497599</v>
+        <v>-0.2681128372844399</v>
       </c>
       <c r="X14">
-        <v>-0.1348656336526144</v>
+        <v>-0.2532122198970588</v>
       </c>
       <c r="Y14">
-        <v>-0.08915806043771068</v>
+        <v>-0.2609030463090245</v>
       </c>
       <c r="Z14">
-        <v>-0.200150175300573</v>
+        <v>-0.2733008487008526</v>
       </c>
       <c r="AA14">
-        <v>-0.1254551401159709</v>
+        <v>-0.3480983700859808</v>
       </c>
       <c r="AB14">
-        <v>-0.1802771585606822</v>
+        <v>-0.2709243735070865</v>
       </c>
       <c r="AC14">
-        <v>-0.4215048939216759</v>
+        <v>-0.428077259747528</v>
       </c>
       <c r="AD14">
-        <v>-0.6120620921455822</v>
+        <v>-0.6415172061831176</v>
       </c>
       <c r="AE14">
-        <v>-0.1253648379836103</v>
+        <v>-0.2043373675692961</v>
       </c>
       <c r="AF14">
-        <v>0.2662518592309704</v>
+        <v>0.3056679541520335</v>
       </c>
       <c r="AG14">
         <v>0.3056679541520335</v>
@@ -2166,58 +2031,40 @@
       <c r="AZ14">
         <v>0.3056679541520335</v>
       </c>
-      <c r="BA14">
-        <v>0.3056679541520335</v>
-      </c>
     </row>
-    <row r="15" spans="1:53">
+    <row r="15" spans="1:52">
       <c r="A15" s="1">
         <v>44561</v>
       </c>
-      <c r="V15">
-        <v>-0.2213070046347854</v>
-      </c>
-      <c r="W15">
-        <v>-0.2163510865588081</v>
-      </c>
-      <c r="X15">
-        <v>-0.2439586621784562</v>
-      </c>
-      <c r="Y15">
-        <v>-0.1028176709098938</v>
-      </c>
-      <c r="Z15">
-        <v>-0.08369295826737844</v>
-      </c>
       <c r="AA15">
-        <v>-0.01946777890954321</v>
+        <v>-0.3127278713534576</v>
       </c>
       <c r="AB15">
-        <v>-0.08399482931426006</v>
+        <v>-0.2985160331797965</v>
       </c>
       <c r="AC15">
-        <v>-0.04706658266243613</v>
+        <v>-0.3128324057260823</v>
       </c>
       <c r="AD15">
-        <v>-0.09748435863199401</v>
+        <v>-0.3202690301181033</v>
       </c>
       <c r="AE15">
-        <v>0.1494302794222913</v>
+        <v>-0.1872494743064723</v>
       </c>
       <c r="AF15">
-        <v>-0.7718622268289566</v>
+        <v>-0.02738999065564629</v>
       </c>
       <c r="AG15">
-        <v>0.2818044080198812</v>
+        <v>-0.2112001730687485</v>
       </c>
       <c r="AH15">
-        <v>-0.05370931890721353</v>
+        <v>-0.6729198470149966</v>
       </c>
       <c r="AI15">
-        <v>-0.9737659111719199</v>
+        <v>-0.8080927309597863</v>
       </c>
       <c r="AJ15">
-        <v>-0.798036187070017</v>
+        <v>-1.388491535160907</v>
       </c>
       <c r="AK15">
         <v>-1.388491535160907</v>
@@ -2267,61 +2114,40 @@
       <c r="AZ15">
         <v>-1.388491535160907</v>
       </c>
-      <c r="BA15">
-        <v>-1.388491535160907</v>
-      </c>
     </row>
-    <row r="16" spans="1:53">
+    <row r="16" spans="1:52">
       <c r="A16" s="1">
         <v>44926</v>
       </c>
-      <c r="Y16">
-        <v>-0.1582533323477797</v>
-      </c>
-      <c r="Z16">
-        <v>-0.2116084030819754</v>
-      </c>
-      <c r="AA16">
-        <v>-0.2015103826779274</v>
-      </c>
-      <c r="AB16">
-        <v>-0.2076521138808407</v>
-      </c>
-      <c r="AC16">
-        <v>-0.03936613913484432</v>
-      </c>
-      <c r="AD16">
-        <v>-0.1577002890640999</v>
-      </c>
       <c r="AE16">
-        <v>-0.07647501574966631</v>
+        <v>-0.2863691763874465</v>
       </c>
       <c r="AF16">
-        <v>-0.09945087068483627</v>
+        <v>-0.1764633559520723</v>
       </c>
       <c r="AG16">
-        <v>-0.09267941611786901</v>
+        <v>-0.1174713876879729</v>
       </c>
       <c r="AH16">
-        <v>0.355880590751112</v>
+        <v>-0.1659341199724107</v>
       </c>
       <c r="AI16">
-        <v>-0.8257694986581909</v>
+        <v>-0.1644030883838465</v>
       </c>
       <c r="AJ16">
-        <v>0.025374137035028</v>
+        <v>-2.365218846580541</v>
       </c>
       <c r="AK16">
-        <v>-1.193502734053931</v>
+        <v>-1.701252732314051</v>
       </c>
       <c r="AL16">
-        <v>-2.110140541019756</v>
+        <v>-1.748780309677478</v>
       </c>
       <c r="AM16">
-        <v>-1.860512579858153</v>
+        <v>-1.697148566375528</v>
       </c>
       <c r="AN16">
-        <v>-1.655159161221598</v>
+        <v>-1.678482969789596</v>
       </c>
       <c r="AO16">
         <v>-1.678482969789596</v>
@@ -2359,61 +2185,43 @@
       <c r="AZ16">
         <v>-1.678482969789596</v>
       </c>
-      <c r="BA16">
-        <v>-1.678482969789596</v>
-      </c>
     </row>
-    <row r="17" spans="1:53">
+    <row r="17" spans="1:52">
       <c r="A17" s="1">
         <v>45291</v>
       </c>
-      <c r="AC17">
-        <v>-0.1962123879165834</v>
-      </c>
-      <c r="AD17">
-        <v>-0.2198767154578563</v>
-      </c>
-      <c r="AE17">
-        <v>-0.1501237515882936</v>
-      </c>
-      <c r="AF17">
-        <v>-0.193447083448306</v>
-      </c>
-      <c r="AG17">
-        <v>-0.09139581036611277</v>
-      </c>
       <c r="AH17">
-        <v>0.05954472274649625</v>
+        <v>-0.2262453279458954</v>
       </c>
       <c r="AI17">
-        <v>-0.05405513316636412</v>
+        <v>-0.1915283081898367</v>
       </c>
       <c r="AJ17">
-        <v>-0.04230598563130794</v>
+        <v>-0.2395344214953798</v>
       </c>
       <c r="AK17">
-        <v>0.455598755672626</v>
+        <v>-0.3039708008245712</v>
       </c>
       <c r="AL17">
-        <v>-0.3602924411988839</v>
+        <v>-0.3138757159763084</v>
       </c>
       <c r="AM17">
-        <v>-0.2290505252614206</v>
+        <v>-0.2339923140600275</v>
       </c>
       <c r="AN17">
-        <v>0.1441694350656331</v>
+        <v>-0.1583814731481836</v>
       </c>
       <c r="AO17">
-        <v>0.1047262454232811</v>
+        <v>-0.6241481568271312</v>
       </c>
       <c r="AP17">
-        <v>-0.4515441491209748</v>
+        <v>-0.6410531931378527</v>
       </c>
       <c r="AQ17">
-        <v>-0.5707406213996236</v>
+        <v>-0.6247846736575413</v>
       </c>
       <c r="AR17">
-        <v>-0.5990045920093001</v>
+        <v>-0.5999457276250508</v>
       </c>
       <c r="AS17">
         <v>-0.5999457276250508</v>
@@ -2439,61 +2247,43 @@
       <c r="AZ17">
         <v>-0.5999457276250508</v>
       </c>
-      <c r="BA17">
-        <v>-0.5999457276250508</v>
-      </c>
     </row>
-    <row r="18" spans="1:53">
+    <row r="18" spans="1:52">
       <c r="A18" s="1">
         <v>45657</v>
       </c>
-      <c r="AG18">
-        <v>-0.06285965444987607</v>
-      </c>
-      <c r="AH18">
-        <v>-0.0509145581560011</v>
-      </c>
-      <c r="AI18">
-        <v>-0.2492677313064351</v>
-      </c>
-      <c r="AJ18">
-        <v>-0.1503766172618271</v>
-      </c>
-      <c r="AK18">
-        <v>-0.1811339973390003</v>
-      </c>
       <c r="AL18">
-        <v>-0.2438075905681125</v>
+        <v>-0.3686474460577349</v>
       </c>
       <c r="AM18">
-        <v>-0.2482867457576754</v>
+        <v>-0.3294995785474542</v>
       </c>
       <c r="AN18">
-        <v>-0.07883441755113241</v>
+        <v>-0.3073589516970454</v>
       </c>
       <c r="AO18">
-        <v>0.01066268345655264</v>
+        <v>-0.3568684571922609</v>
       </c>
       <c r="AP18">
-        <v>0.02889222465600749</v>
+        <v>-0.3624456929795739</v>
       </c>
       <c r="AQ18">
-        <v>0.0732352941048342</v>
+        <v>-0.3554771869619944</v>
       </c>
       <c r="AR18">
-        <v>-0.09594573104433346</v>
+        <v>-0.2733934973402352</v>
       </c>
       <c r="AS18">
-        <v>0.06001813511820053</v>
+        <v>-0.2119687890143274</v>
       </c>
       <c r="AT18">
-        <v>-0.0412020681479941</v>
+        <v>-0.1344629014043419</v>
       </c>
       <c r="AU18">
-        <v>-0.03960232994498769</v>
+        <v>-0.09040308684795662</v>
       </c>
       <c r="AV18">
-        <v>-0.06180454587446649</v>
+        <v>-0.05499271238530445</v>
       </c>
       <c r="AW18">
         <v>-0.05499271238530445</v>
@@ -2507,173 +2297,88 @@
       <c r="AZ18">
         <v>-0.05499271238530445</v>
       </c>
-      <c r="BA18">
-        <v>-0.05499271238530445</v>
-      </c>
     </row>
-    <row r="19" spans="1:53">
+    <row r="19" spans="1:52">
       <c r="A19" s="1">
         <v>46022</v>
       </c>
-      <c r="AK19">
-        <v>-0.2353022655226855</v>
-      </c>
-      <c r="AL19">
-        <v>-0.3812771394735459</v>
-      </c>
-      <c r="AM19">
-        <v>-0.3522792995619528</v>
-      </c>
-      <c r="AN19">
-        <v>-0.2949197807379234</v>
-      </c>
-      <c r="AO19">
-        <v>-0.08631746435170395</v>
-      </c>
       <c r="AP19">
-        <v>-0.1087785702242439</v>
+        <v>-0.3726310378213471</v>
       </c>
       <c r="AQ19">
-        <v>-0.08767670219025359</v>
+        <v>-0.3811678132403018</v>
       </c>
       <c r="AR19">
-        <v>-0.2068897079455345</v>
+        <v>-0.3780242922104993</v>
       </c>
       <c r="AS19">
-        <v>0.02381850206059077</v>
+        <v>-0.3675939520929039</v>
       </c>
       <c r="AT19">
-        <v>-0.0514829764668101</v>
+        <v>-0.356174448876545</v>
       </c>
       <c r="AU19">
-        <v>0.07100632971737131</v>
+        <v>-0.3159097170635006</v>
       </c>
       <c r="AV19">
-        <v>-0.08108884376691883</v>
+        <v>-0.1967532854572851</v>
       </c>
       <c r="AW19">
-        <v>0.02553660812301128</v>
+        <v>-0.06564014165270082</v>
       </c>
       <c r="AX19">
-        <v>0.09051274179980862</v>
+        <v>0.393650197209916</v>
       </c>
       <c r="AY19">
-        <v>0.4705817098730858</v>
+        <v>0.3813481955213138</v>
       </c>
       <c r="AZ19">
-        <v>0.4327853568336204</v>
-      </c>
-      <c r="BA19">
         <v>0.4335297397760618</v>
       </c>
     </row>
-    <row r="20" spans="1:53">
+    <row r="20" spans="1:52">
       <c r="A20" s="1">
         <v>46387</v>
       </c>
-      <c r="AO20">
-        <v>-0.3087530182751208</v>
-      </c>
-      <c r="AP20">
-        <v>-0.3542487852678855</v>
-      </c>
-      <c r="AQ20">
-        <v>-0.3589549394015901</v>
-      </c>
-      <c r="AR20">
-        <v>-0.3818773121348595</v>
-      </c>
-      <c r="AS20">
-        <v>-0.08016643267075851</v>
-      </c>
       <c r="AT20">
-        <v>-0.2319337257982168</v>
+        <v>-0.370253819370725</v>
       </c>
       <c r="AU20">
-        <v>-0.1743553690486732</v>
+        <v>-0.3674463749899881</v>
       </c>
       <c r="AV20">
-        <v>-0.2151487926041029</v>
+        <v>-0.3611597286974577</v>
       </c>
       <c r="AW20">
-        <v>-0.04680764841588081</v>
+        <v>-0.3724803060494719</v>
       </c>
       <c r="AX20">
-        <v>-0.09277613203892976</v>
+        <v>-0.2112949500827632</v>
       </c>
       <c r="AY20">
-        <v>0.2383054438446441</v>
+        <v>-0.2523778956734835</v>
       </c>
       <c r="AZ20">
-        <v>0.2080746432969294</v>
-      </c>
-      <c r="BA20">
-        <v>0.216636701550188</v>
+        <v>-0.05771130674934177</v>
       </c>
     </row>
-    <row r="21" spans="1:53">
+    <row r="21" spans="1:52">
       <c r="A21" s="1">
         <v>46752</v>
       </c>
-      <c r="AS21">
-        <v>-0.3465687960810815</v>
-      </c>
-      <c r="AT21">
-        <v>-0.3687888585148791</v>
-      </c>
-      <c r="AU21">
-        <v>-0.3553102109077777</v>
-      </c>
-      <c r="AV21">
-        <v>-0.3719451655801564</v>
-      </c>
-      <c r="AW21">
-        <v>-0.1265260312543148</v>
-      </c>
       <c r="AX21">
-        <v>-0.1007291035657665</v>
+        <v>-0.3179113751378249</v>
       </c>
       <c r="AY21">
-        <v>-0.179071901708916</v>
+        <v>-0.3521544584122904</v>
       </c>
       <c r="AZ21">
-        <v>-0.04538836591986284</v>
-      </c>
-      <c r="BA21">
-        <v>0.147165319635123</v>
+        <v>-0.319697601342106</v>
       </c>
     </row>
-    <row r="22" spans="1:53">
+    <row r="22" spans="1:52">
       <c r="A22" s="1">
         <v>47118</v>
-      </c>
-      <c r="AW22">
-        <v>-0.3682665688757969</v>
-      </c>
-      <c r="AX22">
-        <v>-0.3645969635388213</v>
-      </c>
-      <c r="AY22">
-        <v>-0.3083256893346764</v>
-      </c>
-      <c r="AZ22">
-        <v>-0.3068994462915198</v>
-      </c>
-      <c r="BA22">
-        <v>-0.1108701448165217</v>
-      </c>
-    </row>
-    <row r="23" spans="1:53">
-      <c r="A23" s="1">
-        <v>47483</v>
-      </c>
-      <c r="BA23">
-        <v>-0.2953403374446495</v>
-      </c>
-    </row>
-    <row r="24" spans="1:53">
-      <c r="A24" s="1">
-        <v>47848</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_INVINV_AR_50_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_INVINV_AR_50_9.xlsx
@@ -2332,7 +2332,7 @@
         <v>-0.3292346503903532</v>
       </c>
       <c r="AG17">
-        <v>-0.4412356890029168</v>
+        <v>-0.3695630056286925</v>
       </c>
       <c r="AH17">
         <v>-1.026566979837418</v>
@@ -2415,19 +2415,19 @@
         <v>-0.09082057608673644</v>
       </c>
       <c r="AG18">
-        <v>-0.1505745581714235</v>
+        <v>-7.030524572515517E-05</v>
       </c>
       <c r="AH18">
-        <v>-2.497698913894009</v>
+        <v>-1.192393303545591</v>
       </c>
       <c r="AI18">
-        <v>-0.4955027878269735</v>
+        <v>-0.6059768475674909</v>
       </c>
       <c r="AJ18">
-        <v>-0.05652554630790618</v>
+        <v>-0.2970982048608128</v>
       </c>
       <c r="AK18">
-        <v>-0.04976849661378902</v>
+        <v>0.3934374973223465</v>
       </c>
       <c r="AL18">
         <v>0.3179894933462268</v>
@@ -2486,31 +2486,31 @@
         <v>-0.1342737069897404</v>
       </c>
       <c r="AG19">
-        <v>-0.1549421835240761</v>
+        <v>-0.1274756116282028</v>
       </c>
       <c r="AH19">
-        <v>-0.4337006754012052</v>
+        <v>-0.3130798859331985</v>
       </c>
       <c r="AI19">
-        <v>-0.278034778427505</v>
+        <v>-0.3011419025451434</v>
       </c>
       <c r="AJ19">
-        <v>0.149910086121019</v>
+        <v>-0.07610064641830894</v>
       </c>
       <c r="AK19">
-        <v>-0.4624617512119622</v>
+        <v>0.3118176492880931</v>
       </c>
       <c r="AL19">
-        <v>0.1527842396192636</v>
+        <v>0.2504325414754982</v>
       </c>
       <c r="AM19">
-        <v>0.4286822041105198</v>
+        <v>0.2712080204189338</v>
       </c>
       <c r="AN19">
-        <v>1.183936177705625</v>
+        <v>0.9873422665386489</v>
       </c>
       <c r="AO19">
-        <v>0.4784173072842179</v>
+        <v>0.4625436162124519</v>
       </c>
       <c r="AP19">
         <v>0.463604920919658</v>
@@ -2553,38 +2553,35 @@
       <c r="A20" s="1">
         <v>45291</v>
       </c>
-      <c r="AI20">
-        <v>-0.2167302557183559</v>
-      </c>
       <c r="AJ20">
-        <v>-0.06984214206851025</v>
+        <v>-0.1937244238038316</v>
       </c>
       <c r="AK20">
-        <v>-0.1329588123803127</v>
+        <v>-0.01509715373498866</v>
       </c>
       <c r="AL20">
-        <v>-0.04348954905876168</v>
+        <v>-0.07757203770000221</v>
       </c>
       <c r="AM20">
-        <v>-0.07547397514037213</v>
+        <v>-0.05021256318447076</v>
       </c>
       <c r="AN20">
-        <v>0.1147913851119675</v>
+        <v>0.03847099707416923</v>
       </c>
       <c r="AO20">
-        <v>-0.05252235973735031</v>
+        <v>-0.07481135892478674</v>
       </c>
       <c r="AP20">
-        <v>-0.2029074457040814</v>
+        <v>-0.01166369079491636</v>
       </c>
       <c r="AQ20">
-        <v>0.4661842108264924</v>
+        <v>0.4798376613666333</v>
       </c>
       <c r="AR20">
-        <v>0.8096199637471102</v>
+        <v>0.7605498842334635</v>
       </c>
       <c r="AS20">
-        <v>0.4279153732809959</v>
+        <v>0.4458909783649156</v>
       </c>
       <c r="AT20">
         <v>0.621639092134818</v>
@@ -2615,38 +2612,35 @@
       <c r="A21" s="1">
         <v>45657</v>
       </c>
-      <c r="AM21">
-        <v>-0.09342458403985843</v>
-      </c>
       <c r="AN21">
-        <v>-0.03830995840434781</v>
+        <v>-0.05090004208089249</v>
       </c>
       <c r="AO21">
-        <v>-0.1083795900367779</v>
+        <v>-0.1077624852032888</v>
       </c>
       <c r="AP21">
-        <v>-0.09340791001049009</v>
+        <v>-0.08875904702143611</v>
       </c>
       <c r="AQ21">
-        <v>-0.09280859516105355</v>
+        <v>-0.1060546019570063</v>
       </c>
       <c r="AR21">
-        <v>-0.08981539700775309</v>
+        <v>-0.05891731780507392</v>
       </c>
       <c r="AS21">
-        <v>-0.1676828594555424</v>
+        <v>-0.1556869089359258</v>
       </c>
       <c r="AT21">
-        <v>-0.1003146131857147</v>
+        <v>-0.1830321574487703</v>
       </c>
       <c r="AU21">
-        <v>-0.438218070630314</v>
+        <v>-0.3486394561975747</v>
       </c>
       <c r="AV21">
-        <v>-1.085560181261136</v>
+        <v>-1.000055557176827</v>
       </c>
       <c r="AW21">
-        <v>-0.9378224616154895</v>
+        <v>-0.9698273264413304</v>
       </c>
       <c r="AX21">
         <v>-0.6768900623516982</v>
@@ -2665,78 +2659,69 @@
       <c r="A22" s="1">
         <v>46022</v>
       </c>
-      <c r="AQ22">
-        <v>-0.06395672088282955</v>
-      </c>
       <c r="AR22">
-        <v>-0.09397145643126326</v>
+        <v>-0.04089427901038389</v>
       </c>
       <c r="AS22">
-        <v>-0.09598662595393659</v>
+        <v>-0.1133647393755433</v>
       </c>
       <c r="AT22">
-        <v>-0.07710804520666414</v>
+        <v>-0.0733182145321476</v>
       </c>
       <c r="AU22">
-        <v>-0.08844532960863294</v>
+        <v>-0.09266255584036154</v>
       </c>
       <c r="AV22">
-        <v>-0.09271976299123352</v>
+        <v>-0.08363380984689472</v>
       </c>
       <c r="AW22">
-        <v>0.0525099363110515</v>
+        <v>-0.02526714717144829</v>
       </c>
       <c r="AX22">
-        <v>0.6778422458094902</v>
+        <v>0.4053576788542124</v>
       </c>
       <c r="AY22">
-        <v>1.664803039325657</v>
+        <v>1.108275029474215</v>
       </c>
       <c r="AZ22">
-        <v>0.5641976336596244</v>
+        <v>0.5724023773773013</v>
       </c>
       <c r="BA22">
-        <v>1.136769786738334</v>
+        <v>1.137079304717759</v>
       </c>
     </row>
     <row r="23" spans="1:53">
       <c r="A23" s="1">
         <v>46387</v>
       </c>
-      <c r="AU23">
-        <v>-0.0939164172748419</v>
-      </c>
       <c r="AV23">
-        <v>-0.09797701577678453</v>
+        <v>-0.1182685102698589</v>
       </c>
       <c r="AW23">
-        <v>-0.03544855936995495</v>
+        <v>-0.072213373061214</v>
       </c>
       <c r="AX23">
-        <v>-0.0132698600553649</v>
+        <v>0.003172138479667908</v>
       </c>
       <c r="AY23">
-        <v>0.06351685110044247</v>
+        <v>-0.05881133788824267</v>
       </c>
       <c r="AZ23">
-        <v>-0.1178589452312528</v>
+        <v>-0.1105236148505218</v>
       </c>
       <c r="BA23">
-        <v>0.06731424764072624</v>
+        <v>0.07906106903616816</v>
       </c>
     </row>
     <row r="24" spans="1:53">
       <c r="A24" s="1">
         <v>46752</v>
       </c>
-      <c r="AY24">
-        <v>0.06957757439702839</v>
-      </c>
       <c r="AZ24">
-        <v>-0.02482096634608411</v>
+        <v>-0.01859813021839463</v>
       </c>
       <c r="BA24">
-        <v>0.03665469872746741</v>
+        <v>0.05124360334189948</v>
       </c>
     </row>
     <row r="25" spans="1:53">

--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_INVINV_AR_50_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_INVINV_AR_50_9.xlsx
@@ -369,7 +369,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA25"/>
+  <dimension ref="A1:BA22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -535,2197 +535,1876 @@
     </row>
     <row r="2" spans="1:53">
       <c r="A2" s="1">
-        <v>38717</v>
+        <v>39813</v>
       </c>
     </row>
     <row r="3" spans="1:53">
       <c r="A3" s="1">
-        <v>39082</v>
+        <v>40178</v>
+      </c>
+      <c r="F3">
+        <v>-0.01587181126744275</v>
+      </c>
+      <c r="G3">
+        <v>-0.1152878906296118</v>
+      </c>
+      <c r="H3">
+        <v>-0.2047209821942952</v>
+      </c>
+      <c r="I3">
+        <v>-0.2801429545594036</v>
+      </c>
+      <c r="J3">
+        <v>-0.6303298271467694</v>
+      </c>
+      <c r="K3">
+        <v>-0.6303298271467694</v>
+      </c>
+      <c r="L3">
+        <v>-0.6303298271467694</v>
+      </c>
+      <c r="M3">
+        <v>-0.6303298271467694</v>
+      </c>
+      <c r="N3">
+        <v>-0.6303298271467694</v>
+      </c>
+      <c r="O3">
+        <v>-0.6303298271467694</v>
+      </c>
+      <c r="P3">
+        <v>-0.6303298271467694</v>
+      </c>
+      <c r="Q3">
+        <v>-0.6303298271467694</v>
+      </c>
+      <c r="R3">
+        <v>-0.6303298271467694</v>
+      </c>
+      <c r="S3">
+        <v>-0.6303298271467694</v>
+      </c>
+      <c r="T3">
+        <v>-0.6303298271467694</v>
+      </c>
+      <c r="U3">
+        <v>-0.6303298271467694</v>
+      </c>
+      <c r="V3">
+        <v>-0.6303298271467694</v>
+      </c>
+      <c r="W3">
+        <v>-0.6303298271467694</v>
+      </c>
+      <c r="X3">
+        <v>-0.6303298271467694</v>
+      </c>
+      <c r="Y3">
+        <v>-0.6303298271467694</v>
+      </c>
+      <c r="Z3">
+        <v>-0.6303298271467694</v>
+      </c>
+      <c r="AA3">
+        <v>-0.6303298271467694</v>
+      </c>
+      <c r="AB3">
+        <v>-0.6303298271467694</v>
+      </c>
+      <c r="AC3">
+        <v>-0.6303298271467694</v>
+      </c>
+      <c r="AD3">
+        <v>-0.6303298271467694</v>
+      </c>
+      <c r="AE3">
+        <v>-0.6303298271467694</v>
+      </c>
+      <c r="AF3">
+        <v>-0.6303298271467694</v>
+      </c>
+      <c r="AG3">
+        <v>-0.6303298271467694</v>
+      </c>
+      <c r="AH3">
+        <v>-0.6303298271467694</v>
+      </c>
+      <c r="AI3">
+        <v>-0.6303298271467694</v>
+      </c>
+      <c r="AJ3">
+        <v>-0.6303298271467694</v>
+      </c>
+      <c r="AK3">
+        <v>-0.6303298271467694</v>
+      </c>
+      <c r="AL3">
+        <v>-0.6303298271467694</v>
+      </c>
+      <c r="AM3">
+        <v>-0.6303298271467694</v>
+      </c>
+      <c r="AN3">
+        <v>-0.6303298271467694</v>
+      </c>
+      <c r="AO3">
+        <v>-0.6303298271467694</v>
+      </c>
+      <c r="AP3">
+        <v>-0.6303298271467694</v>
+      </c>
+      <c r="AQ3">
+        <v>-0.6303298271467694</v>
+      </c>
+      <c r="AR3">
+        <v>-0.6303298271467694</v>
+      </c>
+      <c r="AS3">
+        <v>-0.6303298271467694</v>
+      </c>
+      <c r="AT3">
+        <v>-0.6303298271467694</v>
+      </c>
+      <c r="AU3">
+        <v>-0.6303298271467694</v>
+      </c>
+      <c r="AV3">
+        <v>-0.6303298271467694</v>
+      </c>
+      <c r="AW3">
+        <v>-0.6303298271467694</v>
+      </c>
+      <c r="AX3">
+        <v>-0.6303298271467694</v>
+      </c>
+      <c r="AY3">
+        <v>-0.6303298271467694</v>
+      </c>
+      <c r="AZ3">
+        <v>-0.6303298271467694</v>
+      </c>
+      <c r="BA3">
+        <v>-0.6303298271467694</v>
       </c>
     </row>
     <row r="4" spans="1:53">
       <c r="A4" s="1">
-        <v>39447</v>
-      </c>
-      <c r="B4">
-        <v>-0.7015558851707571</v>
-      </c>
-      <c r="C4">
-        <v>-0.6995465100600118</v>
-      </c>
-      <c r="D4">
-        <v>-0.8378691614090439</v>
-      </c>
-      <c r="E4">
-        <v>-0.8130688884747772</v>
-      </c>
-      <c r="F4">
-        <v>-0.7418837606389284</v>
+        <v>40543</v>
       </c>
       <c r="G4">
-        <v>-0.7418837606389284</v>
+        <v>0.103718492342586</v>
       </c>
       <c r="H4">
-        <v>-0.7418837606389284</v>
+        <v>-0.02256889165886955</v>
       </c>
       <c r="I4">
-        <v>-0.7418837606389284</v>
+        <v>0.1732664175299936</v>
       </c>
       <c r="J4">
-        <v>-0.7418837606389284</v>
+        <v>0.2311193849168669</v>
       </c>
       <c r="K4">
-        <v>-0.7418837606389284</v>
+        <v>0.2562644760991883</v>
       </c>
       <c r="L4">
-        <v>-0.7418837606389284</v>
+        <v>0.3824851463237522</v>
       </c>
       <c r="M4">
-        <v>-0.7418837606389284</v>
+        <v>0.3824851463237522</v>
       </c>
       <c r="N4">
-        <v>-0.7418837606389284</v>
+        <v>0.3824851463237522</v>
       </c>
       <c r="O4">
-        <v>-0.7418837606389284</v>
+        <v>0.3824851463237522</v>
       </c>
       <c r="P4">
-        <v>-0.7418837606389284</v>
+        <v>0.3824851463237522</v>
       </c>
       <c r="Q4">
-        <v>-0.7418837606389284</v>
+        <v>0.3824851463237522</v>
       </c>
       <c r="R4">
-        <v>-0.7418837606389284</v>
+        <v>0.3824851463237522</v>
       </c>
       <c r="S4">
-        <v>-0.7418837606389284</v>
+        <v>0.3824851463237522</v>
       </c>
       <c r="T4">
-        <v>-0.7418837606389284</v>
+        <v>0.3824851463237522</v>
       </c>
       <c r="U4">
-        <v>-0.7418837606389284</v>
+        <v>0.3824851463237522</v>
       </c>
       <c r="V4">
-        <v>-0.7418837606389284</v>
+        <v>0.3824851463237522</v>
       </c>
       <c r="W4">
-        <v>-0.7418837606389284</v>
+        <v>0.3824851463237522</v>
       </c>
       <c r="X4">
-        <v>-0.7418837606389284</v>
+        <v>0.3824851463237522</v>
       </c>
       <c r="Y4">
-        <v>-0.7418837606389284</v>
+        <v>0.3824851463237522</v>
       </c>
       <c r="Z4">
-        <v>-0.7418837606389284</v>
+        <v>0.3824851463237522</v>
       </c>
       <c r="AA4">
-        <v>-0.7418837606389284</v>
+        <v>0.3824851463237522</v>
       </c>
       <c r="AB4">
-        <v>-0.7418837606389284</v>
+        <v>0.3824851463237522</v>
       </c>
       <c r="AC4">
-        <v>-0.7418837606389284</v>
+        <v>0.3824851463237522</v>
       </c>
       <c r="AD4">
-        <v>-0.7418837606389284</v>
+        <v>0.3824851463237522</v>
       </c>
       <c r="AE4">
-        <v>-0.7418837606389284</v>
+        <v>0.3824851463237522</v>
       </c>
       <c r="AF4">
-        <v>-0.7418837606389284</v>
+        <v>0.3824851463237522</v>
       </c>
       <c r="AG4">
-        <v>-0.7418837606389284</v>
+        <v>0.3824851463237522</v>
       </c>
       <c r="AH4">
-        <v>-0.7418837606389284</v>
+        <v>0.3824851463237522</v>
       </c>
       <c r="AI4">
-        <v>-0.7418837606389284</v>
+        <v>0.3824851463237522</v>
       </c>
       <c r="AJ4">
-        <v>-0.7418837606389284</v>
+        <v>0.3824851463237522</v>
       </c>
       <c r="AK4">
-        <v>-0.7418837606389284</v>
+        <v>0.3824851463237522</v>
       </c>
       <c r="AL4">
-        <v>-0.7418837606389284</v>
+        <v>0.3824851463237522</v>
       </c>
       <c r="AM4">
-        <v>-0.7418837606389284</v>
+        <v>0.3824851463237522</v>
       </c>
       <c r="AN4">
-        <v>-0.7418837606389284</v>
+        <v>0.3824851463237522</v>
       </c>
       <c r="AO4">
-        <v>-0.7418837606389284</v>
+        <v>0.3824851463237522</v>
       </c>
       <c r="AP4">
-        <v>-0.7418837606389284</v>
+        <v>0.3824851463237522</v>
       </c>
       <c r="AQ4">
-        <v>-0.7418837606389284</v>
+        <v>0.3824851463237522</v>
       </c>
       <c r="AR4">
-        <v>-0.7418837606389284</v>
+        <v>0.3824851463237522</v>
       </c>
       <c r="AS4">
-        <v>-0.7418837606389284</v>
+        <v>0.3824851463237522</v>
       </c>
       <c r="AT4">
-        <v>-0.7418837606389284</v>
+        <v>0.3824851463237522</v>
       </c>
       <c r="AU4">
-        <v>-0.7418837606389284</v>
+        <v>0.3824851463237522</v>
       </c>
       <c r="AV4">
-        <v>-0.7418837606389284</v>
+        <v>0.3824851463237522</v>
       </c>
       <c r="AW4">
-        <v>-0.7418837606389284</v>
+        <v>0.3824851463237522</v>
       </c>
       <c r="AX4">
-        <v>-0.7418837606389284</v>
+        <v>0.3824851463237522</v>
       </c>
       <c r="AY4">
-        <v>-0.7418837606389284</v>
+        <v>0.3824851463237522</v>
       </c>
       <c r="AZ4">
-        <v>-0.7418837606389284</v>
+        <v>0.3824851463237522</v>
       </c>
       <c r="BA4">
-        <v>-0.7418837606389284</v>
+        <v>0.3824851463237522</v>
       </c>
     </row>
     <row r="5" spans="1:53">
       <c r="A5" s="1">
-        <v>39813</v>
-      </c>
-      <c r="D5">
-        <v>0.3590181115727509</v>
-      </c>
-      <c r="E5">
-        <v>0.3564654464027761</v>
-      </c>
-      <c r="F5">
-        <v>0.2765385799708087</v>
+        <v>40908</v>
       </c>
       <c r="G5">
-        <v>0.2765385799708087</v>
+        <v>0.1523866428317477</v>
       </c>
       <c r="H5">
-        <v>-0.3442601760834885</v>
+        <v>0.1850158025575199</v>
       </c>
       <c r="I5">
-        <v>-0.3442601760834885</v>
+        <v>-0.3429736775751868</v>
       </c>
       <c r="J5">
-        <v>-0.3442601760834885</v>
+        <v>0.09611428386595566</v>
       </c>
       <c r="K5">
-        <v>-0.3442601760834885</v>
+        <v>0.2959607217578153</v>
       </c>
       <c r="L5">
-        <v>-0.3442601760834885</v>
+        <v>0.5943957614300777</v>
       </c>
       <c r="M5">
-        <v>-0.3442601760834885</v>
+        <v>0.5943957614300777</v>
       </c>
       <c r="N5">
-        <v>-0.3442601760834885</v>
+        <v>0.4942252260480062</v>
       </c>
       <c r="O5">
-        <v>-0.3442601760834885</v>
+        <v>0.4942252260480062</v>
       </c>
       <c r="P5">
-        <v>-0.3442601760834885</v>
+        <v>0.4942252260480062</v>
       </c>
       <c r="Q5">
-        <v>-0.3442601760834885</v>
+        <v>0.4942252260480062</v>
       </c>
       <c r="R5">
-        <v>-0.3442601760834885</v>
+        <v>0.4942252260480062</v>
       </c>
       <c r="S5">
-        <v>-0.3442601760834885</v>
+        <v>0.4942252260480062</v>
       </c>
       <c r="T5">
-        <v>-0.3442601760834885</v>
+        <v>0.4942252260480062</v>
       </c>
       <c r="U5">
-        <v>-0.3442601760834885</v>
+        <v>0.4942252260480062</v>
       </c>
       <c r="V5">
-        <v>-0.3442601760834885</v>
+        <v>0.4942252260480062</v>
       </c>
       <c r="W5">
-        <v>-0.3442601760834885</v>
+        <v>0.4942252260480062</v>
       </c>
       <c r="X5">
-        <v>-0.3442601760834885</v>
+        <v>0.4942252260480062</v>
       </c>
       <c r="Y5">
-        <v>-0.3442601760834885</v>
+        <v>0.4942252260480062</v>
       </c>
       <c r="Z5">
-        <v>-0.3442601760834885</v>
+        <v>0.4942252260480062</v>
       </c>
       <c r="AA5">
-        <v>-0.3442601760834885</v>
+        <v>0.4942252260480062</v>
       </c>
       <c r="AB5">
-        <v>-0.3442601760834885</v>
+        <v>0.4942252260480062</v>
       </c>
       <c r="AC5">
-        <v>-0.3442601760834885</v>
+        <v>0.4942252260480062</v>
       </c>
       <c r="AD5">
-        <v>-0.3442601760834885</v>
+        <v>0.4942252260480062</v>
       </c>
       <c r="AE5">
-        <v>-0.3442601760834885</v>
+        <v>0.4942252260480062</v>
       </c>
       <c r="AF5">
-        <v>-0.3442601760834885</v>
+        <v>0.4942252260480062</v>
       </c>
       <c r="AG5">
-        <v>-0.3442601760834885</v>
+        <v>0.4942252260480062</v>
       </c>
       <c r="AH5">
-        <v>-0.3442601760834885</v>
+        <v>0.4942252260480062</v>
       </c>
       <c r="AI5">
-        <v>-0.3442601760834885</v>
+        <v>0.4942252260480062</v>
       </c>
       <c r="AJ5">
-        <v>-0.3442601760834885</v>
+        <v>0.4942252260480062</v>
       </c>
       <c r="AK5">
-        <v>-0.3442601760834885</v>
+        <v>0.4942252260480062</v>
       </c>
       <c r="AL5">
-        <v>-0.3442601760834885</v>
+        <v>0.4942252260480062</v>
       </c>
       <c r="AM5">
-        <v>-0.3442601760834885</v>
+        <v>0.4942252260480062</v>
       </c>
       <c r="AN5">
-        <v>-0.3442601760834885</v>
+        <v>0.4942252260480062</v>
       </c>
       <c r="AO5">
-        <v>-0.3442601760834885</v>
+        <v>0.4942252260480062</v>
       </c>
       <c r="AP5">
-        <v>-0.3442601760834885</v>
+        <v>0.4942252260480062</v>
       </c>
       <c r="AQ5">
-        <v>-0.3442601760834885</v>
+        <v>0.4942252260480062</v>
       </c>
       <c r="AR5">
-        <v>-0.3442601760834885</v>
+        <v>0.4942252260480062</v>
       </c>
       <c r="AS5">
-        <v>-0.3442601760834885</v>
+        <v>0.4942252260480062</v>
       </c>
       <c r="AT5">
-        <v>-0.3442601760834885</v>
+        <v>0.4942252260480062</v>
       </c>
       <c r="AU5">
-        <v>-0.3442601760834885</v>
+        <v>0.4942252260480062</v>
       </c>
       <c r="AV5">
-        <v>-0.3442601760834885</v>
+        <v>0.4942252260480062</v>
       </c>
       <c r="AW5">
-        <v>-0.3442601760834885</v>
+        <v>0.4942252260480062</v>
       </c>
       <c r="AX5">
-        <v>-0.3442601760834885</v>
+        <v>0.4942252260480062</v>
       </c>
       <c r="AY5">
-        <v>-0.3442601760834885</v>
+        <v>0.4942252260480062</v>
       </c>
       <c r="AZ5">
-        <v>-0.3442601760834885</v>
+        <v>0.4942252260480062</v>
       </c>
       <c r="BA5">
-        <v>-0.3442601760834885</v>
+        <v>0.4942252260480062</v>
       </c>
     </row>
     <row r="6" spans="1:53">
       <c r="A6" s="1">
-        <v>40178</v>
-      </c>
-      <c r="F6">
-        <v>-0.01587181126743165</v>
+        <v>41274</v>
       </c>
       <c r="G6">
-        <v>-0.1152878906296118</v>
+        <v>0.1167670871367488</v>
       </c>
       <c r="H6">
-        <v>-0.2047209821942841</v>
+        <v>-0.07227903836199978</v>
       </c>
       <c r="I6">
-        <v>-0.2801429545593925</v>
+        <v>-0.1149259972201611</v>
       </c>
       <c r="J6">
-        <v>-0.6303298271467472</v>
+        <v>-0.0461580488825164</v>
       </c>
       <c r="K6">
-        <v>-0.6303298271467472</v>
+        <v>-0.2064822032187386</v>
       </c>
       <c r="L6">
-        <v>-0.6303298271467472</v>
+        <v>-0.1827723404408288</v>
       </c>
       <c r="M6">
-        <v>-0.6303298271467472</v>
+        <v>-0.3822321343413204</v>
       </c>
       <c r="N6">
-        <v>-0.6303298271467472</v>
+        <v>-0.4058678725275766</v>
       </c>
       <c r="O6">
-        <v>-0.6303298271467472</v>
+        <v>-0.4556399653004473</v>
       </c>
       <c r="P6">
-        <v>-0.6303298271467472</v>
+        <v>-0.8283953561833202</v>
       </c>
       <c r="Q6">
-        <v>-0.6303298271467472</v>
+        <v>-0.8283953561833202</v>
       </c>
       <c r="R6">
-        <v>-0.6303298271467472</v>
+        <v>-0.8283953561833202</v>
       </c>
       <c r="S6">
-        <v>-0.6303298271467472</v>
+        <v>-0.8283953561833202</v>
       </c>
       <c r="T6">
-        <v>-0.6303298271467472</v>
+        <v>-0.8283953561833202</v>
       </c>
       <c r="U6">
-        <v>-0.6303298271467472</v>
+        <v>-0.8283953561833202</v>
       </c>
       <c r="V6">
-        <v>-0.6303298271467472</v>
+        <v>-0.8283953561833202</v>
       </c>
       <c r="W6">
-        <v>-0.6303298271467472</v>
+        <v>-0.8283953561833202</v>
       </c>
       <c r="X6">
-        <v>-0.6303298271467472</v>
+        <v>-0.8283953561833202</v>
       </c>
       <c r="Y6">
-        <v>-0.6303298271467472</v>
+        <v>-0.8283953561833202</v>
       </c>
       <c r="Z6">
-        <v>-0.6303298271467472</v>
+        <v>-0.8283953561833202</v>
       </c>
       <c r="AA6">
-        <v>-0.6303298271467472</v>
+        <v>-0.8283953561833202</v>
       </c>
       <c r="AB6">
-        <v>-0.6303298271467472</v>
+        <v>-0.8283953561833202</v>
       </c>
       <c r="AC6">
-        <v>-0.6303298271467472</v>
+        <v>-0.8283953561833202</v>
       </c>
       <c r="AD6">
-        <v>-0.6303298271467472</v>
+        <v>-0.8283953561833202</v>
       </c>
       <c r="AE6">
-        <v>-0.6303298271467472</v>
+        <v>-0.8283953561833202</v>
       </c>
       <c r="AF6">
-        <v>-0.6303298271467472</v>
+        <v>-0.8283953561833202</v>
       </c>
       <c r="AG6">
-        <v>-0.6303298271467472</v>
+        <v>-0.8283953561833202</v>
       </c>
       <c r="AH6">
-        <v>-0.6303298271467472</v>
+        <v>-0.8283953561833202</v>
       </c>
       <c r="AI6">
-        <v>-0.6303298271467472</v>
+        <v>-0.8283953561833202</v>
       </c>
       <c r="AJ6">
-        <v>-0.6303298271467472</v>
+        <v>-0.8283953561833202</v>
       </c>
       <c r="AK6">
-        <v>-0.6303298271467472</v>
+        <v>-0.8283953561833202</v>
       </c>
       <c r="AL6">
-        <v>-0.6303298271467472</v>
+        <v>-0.8283953561833202</v>
       </c>
       <c r="AM6">
-        <v>-0.6303298271467472</v>
+        <v>-0.8283953561833202</v>
       </c>
       <c r="AN6">
-        <v>-0.6303298271467472</v>
+        <v>-0.8283953561833202</v>
       </c>
       <c r="AO6">
-        <v>-0.6303298271467472</v>
+        <v>-0.8283953561833202</v>
       </c>
       <c r="AP6">
-        <v>-0.6303298271467472</v>
+        <v>-0.8283953561833202</v>
       </c>
       <c r="AQ6">
-        <v>-0.6303298271467472</v>
+        <v>-0.8283953561833202</v>
       </c>
       <c r="AR6">
-        <v>-0.6303298271467472</v>
+        <v>-0.8283953561833202</v>
       </c>
       <c r="AS6">
-        <v>-0.6303298271467472</v>
+        <v>-0.8283953561833202</v>
       </c>
       <c r="AT6">
-        <v>-0.6303298271467472</v>
+        <v>-0.8283953561833202</v>
       </c>
       <c r="AU6">
-        <v>-0.6303298271467472</v>
+        <v>-0.8283953561833202</v>
       </c>
       <c r="AV6">
-        <v>-0.6303298271467472</v>
+        <v>-0.8283953561833202</v>
       </c>
       <c r="AW6">
-        <v>-0.6303298271467472</v>
+        <v>-0.8283953561833202</v>
       </c>
       <c r="AX6">
-        <v>-0.6303298271467472</v>
+        <v>-0.8283953561833202</v>
       </c>
       <c r="AY6">
-        <v>-0.6303298271467472</v>
+        <v>-0.8283953561833202</v>
       </c>
       <c r="AZ6">
-        <v>-0.6303298271467472</v>
+        <v>-0.8283953561833202</v>
       </c>
       <c r="BA6">
-        <v>-0.6303298271467472</v>
+        <v>-0.8283953561833202</v>
       </c>
     </row>
     <row r="7" spans="1:53">
       <c r="A7" s="1">
-        <v>40543</v>
-      </c>
-      <c r="G7">
-        <v>0.1037184923425638</v>
-      </c>
-      <c r="H7">
-        <v>-0.02256889165885845</v>
+        <v>41639</v>
       </c>
       <c r="I7">
-        <v>0.1732664175300158</v>
+        <v>-0.1314743233627791</v>
       </c>
       <c r="J7">
-        <v>0.2311193849168669</v>
+        <v>-0.1054927427744712</v>
       </c>
       <c r="K7">
-        <v>0.2562644760991883</v>
+        <v>-0.1075365560329056</v>
       </c>
       <c r="L7">
-        <v>0.3824851463237522</v>
+        <v>-0.1118170657869455</v>
       </c>
       <c r="M7">
-        <v>0.3824851463237522</v>
+        <v>0.005797897989445744</v>
       </c>
       <c r="N7">
-        <v>0.3824851463237522</v>
+        <v>-0.001350220946472191</v>
       </c>
       <c r="O7">
-        <v>0.3824851463237522</v>
+        <v>-0.1268349561723836</v>
       </c>
       <c r="P7">
-        <v>0.3824851463237522</v>
+        <v>-0.0544176132767471</v>
       </c>
       <c r="Q7">
-        <v>0.3824851463237522</v>
+        <v>-0.1541135436267549</v>
       </c>
       <c r="R7">
-        <v>0.3824851463237522</v>
+        <v>-0.1541135436267549</v>
       </c>
       <c r="S7">
-        <v>0.3824851463237522</v>
+        <v>-0.1541135436267549</v>
       </c>
       <c r="T7">
-        <v>0.3824851463237522</v>
+        <v>-0.1541135436267549</v>
       </c>
       <c r="U7">
-        <v>0.3824851463237522</v>
+        <v>-0.1541135436267549</v>
       </c>
       <c r="V7">
-        <v>0.3824851463237522</v>
+        <v>-0.1541135436267549</v>
       </c>
       <c r="W7">
-        <v>0.3824851463237522</v>
+        <v>-0.1541135436267549</v>
       </c>
       <c r="X7">
-        <v>0.3824851463237522</v>
+        <v>-0.1541135436267549</v>
       </c>
       <c r="Y7">
-        <v>0.3824851463237522</v>
+        <v>-0.1541135436267549</v>
       </c>
       <c r="Z7">
-        <v>0.3824851463237522</v>
+        <v>-0.1541135436267549</v>
       </c>
       <c r="AA7">
-        <v>0.3824851463237522</v>
+        <v>-0.1541135436267549</v>
       </c>
       <c r="AB7">
-        <v>0.3824851463237522</v>
+        <v>-0.1541135436267549</v>
       </c>
       <c r="AC7">
-        <v>0.3824851463237522</v>
+        <v>-0.1541135436267549</v>
       </c>
       <c r="AD7">
-        <v>0.3824851463237522</v>
+        <v>-0.1541135436267549</v>
       </c>
       <c r="AE7">
-        <v>0.3824851463237522</v>
+        <v>-0.1541135436267549</v>
       </c>
       <c r="AF7">
-        <v>0.3824851463237522</v>
+        <v>-0.1541135436267549</v>
       </c>
       <c r="AG7">
-        <v>0.3824851463237522</v>
+        <v>-0.1541135436267549</v>
       </c>
       <c r="AH7">
-        <v>0.3824851463237522</v>
+        <v>-0.1541135436267549</v>
       </c>
       <c r="AI7">
-        <v>0.3824851463237522</v>
+        <v>-0.1541135436267549</v>
       </c>
       <c r="AJ7">
-        <v>0.3824851463237522</v>
+        <v>-0.1541135436267549</v>
       </c>
       <c r="AK7">
-        <v>0.3824851463237522</v>
+        <v>-0.1541135436267549</v>
       </c>
       <c r="AL7">
-        <v>0.3824851463237522</v>
+        <v>-0.1541135436267549</v>
       </c>
       <c r="AM7">
-        <v>0.3824851463237522</v>
+        <v>-0.1541135436267549</v>
       </c>
       <c r="AN7">
-        <v>0.3824851463237522</v>
+        <v>-0.1541135436267549</v>
       </c>
       <c r="AO7">
-        <v>0.3824851463237522</v>
+        <v>-0.1541135436267549</v>
       </c>
       <c r="AP7">
-        <v>0.3824851463237522</v>
+        <v>-0.1541135436267549</v>
       </c>
       <c r="AQ7">
-        <v>0.3824851463237522</v>
+        <v>-0.1541135436267549</v>
       </c>
       <c r="AR7">
-        <v>0.3824851463237522</v>
+        <v>-0.1541135436267549</v>
       </c>
       <c r="AS7">
-        <v>0.3824851463237522</v>
+        <v>-0.1541135436267549</v>
       </c>
       <c r="AT7">
-        <v>0.3824851463237522</v>
+        <v>-0.1541135436267549</v>
       </c>
       <c r="AU7">
-        <v>0.3824851463237522</v>
+        <v>-0.1541135436267549</v>
       </c>
       <c r="AV7">
-        <v>0.3824851463237522</v>
+        <v>-0.1541135436267549</v>
       </c>
       <c r="AW7">
-        <v>0.3824851463237522</v>
+        <v>-0.1541135436267549</v>
       </c>
       <c r="AX7">
-        <v>0.3824851463237522</v>
+        <v>-0.1541135436267549</v>
       </c>
       <c r="AY7">
-        <v>0.3824851463237522</v>
+        <v>-0.1541135436267549</v>
       </c>
       <c r="AZ7">
-        <v>0.3824851463237522</v>
+        <v>-0.1541135436267549</v>
       </c>
       <c r="BA7">
-        <v>0.3824851463237522</v>
+        <v>-0.1541135436267549</v>
       </c>
     </row>
     <row r="8" spans="1:53">
       <c r="A8" s="1">
-        <v>40908</v>
-      </c>
-      <c r="G8">
-        <v>0.1523866428317699</v>
-      </c>
-      <c r="H8">
-        <v>0.1850158025574977</v>
-      </c>
-      <c r="I8">
-        <v>-0.3429736775751868</v>
-      </c>
-      <c r="J8">
-        <v>0.09611428386597787</v>
+        <v>42004</v>
       </c>
       <c r="K8">
-        <v>0.2959607217577931</v>
+        <v>-0.09051772246183587</v>
       </c>
       <c r="L8">
-        <v>0.5943957614300999</v>
+        <v>-0.04078520160535337</v>
       </c>
       <c r="M8">
-        <v>0.5943957614300999</v>
+        <v>-0.05125851421728944</v>
       </c>
       <c r="N8">
-        <v>0.4942252260480062</v>
+        <v>-0.02003709364999384</v>
       </c>
       <c r="O8">
-        <v>0.4942252260480062</v>
+        <v>0.2273278155300318</v>
       </c>
       <c r="P8">
-        <v>0.4942252260480062</v>
+        <v>-0.075754880139145</v>
       </c>
       <c r="Q8">
-        <v>0.4942252260480062</v>
+        <v>-0.050511210332016</v>
       </c>
       <c r="R8">
-        <v>0.4942252260480062</v>
+        <v>0.2992729818363626</v>
       </c>
       <c r="S8">
-        <v>0.4942252260480062</v>
+        <v>0.2992729818363626</v>
       </c>
       <c r="T8">
-        <v>0.4942252260480062</v>
+        <v>0.2992729818363626</v>
       </c>
       <c r="U8">
-        <v>0.4942252260480062</v>
+        <v>0.2992729818363626</v>
       </c>
       <c r="V8">
-        <v>0.4942252260480062</v>
+        <v>0.2992729818363626</v>
       </c>
       <c r="W8">
-        <v>0.4942252260480062</v>
+        <v>0.2992729818363626</v>
       </c>
       <c r="X8">
-        <v>0.4942252260480062</v>
+        <v>0.2992729818363626</v>
       </c>
       <c r="Y8">
-        <v>0.4942252260480062</v>
+        <v>0.2992729818363626</v>
       </c>
       <c r="Z8">
-        <v>0.4942252260480062</v>
+        <v>0.2992729818363626</v>
       </c>
       <c r="AA8">
-        <v>0.4942252260480062</v>
+        <v>0.2992729818363626</v>
       </c>
       <c r="AB8">
-        <v>0.4942252260480062</v>
+        <v>0.2992729818363626</v>
       </c>
       <c r="AC8">
-        <v>0.4942252260480062</v>
+        <v>0.2992729818363626</v>
       </c>
       <c r="AD8">
-        <v>0.4942252260480062</v>
+        <v>0.2992729818363626</v>
       </c>
       <c r="AE8">
-        <v>0.4942252260480062</v>
+        <v>0.2992729818363626</v>
       </c>
       <c r="AF8">
-        <v>0.4942252260480062</v>
+        <v>0.2992729818363626</v>
       </c>
       <c r="AG8">
-        <v>0.4942252260480062</v>
+        <v>0.2992729818363626</v>
       </c>
       <c r="AH8">
-        <v>0.4942252260480062</v>
+        <v>0.2992729818363626</v>
       </c>
       <c r="AI8">
-        <v>0.4942252260480062</v>
+        <v>0.2992729818363626</v>
       </c>
       <c r="AJ8">
-        <v>0.4942252260480062</v>
+        <v>0.2992729818363626</v>
       </c>
       <c r="AK8">
-        <v>0.4942252260480062</v>
+        <v>0.2992729818363626</v>
       </c>
       <c r="AL8">
-        <v>0.4942252260480062</v>
+        <v>0.2992729818363626</v>
       </c>
       <c r="AM8">
-        <v>0.4942252260480062</v>
+        <v>0.2992729818363626</v>
       </c>
       <c r="AN8">
-        <v>0.4942252260480062</v>
+        <v>0.2992729818363626</v>
       </c>
       <c r="AO8">
-        <v>0.4942252260480062</v>
+        <v>0.2992729818363626</v>
       </c>
       <c r="AP8">
-        <v>0.4942252260480062</v>
+        <v>0.2992729818363626</v>
       </c>
       <c r="AQ8">
-        <v>0.4942252260480062</v>
+        <v>0.2992729818363626</v>
       </c>
       <c r="AR8">
-        <v>0.4942252260480062</v>
+        <v>0.2992729818363626</v>
       </c>
       <c r="AS8">
-        <v>0.4942252260480062</v>
+        <v>0.2992729818363626</v>
       </c>
       <c r="AT8">
-        <v>0.4942252260480062</v>
+        <v>0.2992729818363626</v>
       </c>
       <c r="AU8">
-        <v>0.4942252260480062</v>
+        <v>0.2992729818363626</v>
       </c>
       <c r="AV8">
-        <v>0.4942252260480062</v>
+        <v>0.2992729818363626</v>
       </c>
       <c r="AW8">
-        <v>0.4942252260480062</v>
+        <v>0.2992729818363626</v>
       </c>
       <c r="AX8">
-        <v>0.4942252260480062</v>
+        <v>0.2992729818363626</v>
       </c>
       <c r="AY8">
-        <v>0.4942252260480062</v>
+        <v>0.2992729818363626</v>
       </c>
       <c r="AZ8">
-        <v>0.4942252260480062</v>
+        <v>0.2992729818363626</v>
       </c>
       <c r="BA8">
-        <v>0.4942252260480062</v>
+        <v>0.2992729818363626</v>
       </c>
     </row>
     <row r="9" spans="1:53">
       <c r="A9" s="1">
-        <v>41274</v>
-      </c>
-      <c r="G9">
-        <v>0.1167670871367266</v>
-      </c>
-      <c r="H9">
-        <v>-0.07227903836199978</v>
-      </c>
-      <c r="I9">
-        <v>-0.1149259972201833</v>
-      </c>
-      <c r="J9">
-        <v>-0.0461580488825053</v>
-      </c>
-      <c r="K9">
-        <v>-0.2064822032187164</v>
-      </c>
-      <c r="L9">
-        <v>-0.1827723404408288</v>
+        <v>42369</v>
       </c>
       <c r="M9">
-        <v>-0.3822321343413204</v>
+        <v>-0.04207204777781914</v>
       </c>
       <c r="N9">
-        <v>-0.4058678725275877</v>
+        <v>-0.04612035657505231</v>
       </c>
       <c r="O9">
-        <v>-0.4556399653004473</v>
+        <v>0.001779459905804082</v>
       </c>
       <c r="P9">
-        <v>-0.8283953561833313</v>
+        <v>-0.2383077634183106</v>
       </c>
       <c r="Q9">
-        <v>-0.8283953561833313</v>
+        <v>-0.2723669344146917</v>
       </c>
       <c r="R9">
-        <v>-0.8283953561833313</v>
+        <v>-0.5761528471665334</v>
       </c>
       <c r="S9">
-        <v>-0.8283953561833313</v>
+        <v>-0.5511352283395166</v>
       </c>
       <c r="T9">
-        <v>-0.8283953561833313</v>
+        <v>-0.5764019548604726</v>
       </c>
       <c r="U9">
-        <v>-0.8283953561833313</v>
+        <v>-0.6011708148489947</v>
       </c>
       <c r="V9">
-        <v>-0.8283953561833313</v>
+        <v>-0.6011708148489947</v>
       </c>
       <c r="W9">
-        <v>-0.8283953561833313</v>
+        <v>-0.6011708148489947</v>
       </c>
       <c r="X9">
-        <v>-0.8283953561833313</v>
+        <v>-0.6011708148489947</v>
       </c>
       <c r="Y9">
-        <v>-0.8283953561833313</v>
+        <v>-0.6011708148489947</v>
       </c>
       <c r="Z9">
-        <v>-0.8283953561833313</v>
+        <v>-0.6011708148489947</v>
       </c>
       <c r="AA9">
-        <v>-0.8283953561833313</v>
+        <v>-0.6011708148489947</v>
       </c>
       <c r="AB9">
-        <v>-0.8283953561833313</v>
+        <v>-0.6011708148489947</v>
       </c>
       <c r="AC9">
-        <v>-0.8283953561833313</v>
+        <v>-0.6011708148489947</v>
       </c>
       <c r="AD9">
-        <v>-0.8283953561833313</v>
+        <v>-0.6011708148489947</v>
       </c>
       <c r="AE9">
-        <v>-0.8283953561833313</v>
+        <v>-0.6011708148489947</v>
       </c>
       <c r="AF9">
-        <v>-0.8283953561833313</v>
+        <v>-0.6011708148489947</v>
       </c>
       <c r="AG9">
-        <v>-0.8283953561833313</v>
+        <v>-0.6011708148489947</v>
       </c>
       <c r="AH9">
-        <v>-0.8283953561833313</v>
+        <v>-0.6011708148489947</v>
       </c>
       <c r="AI9">
-        <v>-0.8283953561833313</v>
+        <v>-0.6011708148489947</v>
       </c>
       <c r="AJ9">
-        <v>-0.8283953561833313</v>
+        <v>-0.6011708148489947</v>
       </c>
       <c r="AK9">
-        <v>-0.8283953561833313</v>
+        <v>-0.6011708148489947</v>
       </c>
       <c r="AL9">
-        <v>-0.8283953561833313</v>
+        <v>-0.6011708148489947</v>
       </c>
       <c r="AM9">
-        <v>-0.8283953561833313</v>
+        <v>-0.6011708148489947</v>
       </c>
       <c r="AN9">
-        <v>-0.8283953561833313</v>
+        <v>-0.6011708148489947</v>
       </c>
       <c r="AO9">
-        <v>-0.8283953561833313</v>
+        <v>-0.6011708148489947</v>
       </c>
       <c r="AP9">
-        <v>-0.8283953561833313</v>
+        <v>-0.6011708148489947</v>
       </c>
       <c r="AQ9">
-        <v>-0.8283953561833313</v>
+        <v>-0.6011708148489947</v>
       </c>
       <c r="AR9">
-        <v>-0.8283953561833313</v>
+        <v>-0.6011708148489947</v>
       </c>
       <c r="AS9">
-        <v>-0.8283953561833313</v>
+        <v>-0.6011708148489947</v>
       </c>
       <c r="AT9">
-        <v>-0.8283953561833313</v>
+        <v>-0.6011708148489947</v>
       </c>
       <c r="AU9">
-        <v>-0.8283953561833313</v>
+        <v>-0.6011708148489947</v>
       </c>
       <c r="AV9">
-        <v>-0.8283953561833313</v>
+        <v>-0.6011708148489947</v>
       </c>
       <c r="AW9">
-        <v>-0.8283953561833313</v>
+        <v>-0.6011708148489947</v>
       </c>
       <c r="AX9">
-        <v>-0.8283953561833313</v>
+        <v>-0.6011708148489947</v>
       </c>
       <c r="AY9">
-        <v>-0.8283953561833313</v>
+        <v>-0.6011708148489947</v>
       </c>
       <c r="AZ9">
-        <v>-0.8283953561833313</v>
+        <v>-0.6011708148489947</v>
       </c>
       <c r="BA9">
-        <v>-0.8283953561833313</v>
+        <v>-0.6011708148489947</v>
       </c>
     </row>
     <row r="10" spans="1:53">
       <c r="A10" s="1">
-        <v>41639</v>
-      </c>
-      <c r="I10">
-        <v>-0.1314743233627791</v>
-      </c>
-      <c r="J10">
-        <v>-0.1054927427744601</v>
-      </c>
-      <c r="K10">
-        <v>-0.1075365560329056</v>
-      </c>
-      <c r="L10">
-        <v>-0.1118170657869455</v>
-      </c>
-      <c r="M10">
-        <v>0.005797897989445744</v>
-      </c>
-      <c r="N10">
-        <v>-0.001350220946483294</v>
+        <v>42735</v>
       </c>
       <c r="O10">
-        <v>-0.1268349561723836</v>
+        <v>-0.03123432717966335</v>
       </c>
       <c r="P10">
-        <v>-0.0544176132767471</v>
+        <v>-0.1383753234272644</v>
       </c>
       <c r="Q10">
-        <v>-0.1541135436267549</v>
+        <v>-0.1573879283727764</v>
       </c>
       <c r="R10">
-        <v>-0.1541135436267549</v>
+        <v>-0.2318455351884796</v>
       </c>
       <c r="S10">
-        <v>-0.1541135436267549</v>
+        <v>-0.0501138982993421</v>
       </c>
       <c r="T10">
-        <v>-0.1541135436267549</v>
+        <v>-0.2011999787958185</v>
       </c>
       <c r="U10">
-        <v>-0.1541135436267549</v>
+        <v>-0.2513629445286991</v>
       </c>
       <c r="V10">
-        <v>-0.1541135436267549</v>
+        <v>-0.2513629445286991</v>
       </c>
       <c r="W10">
-        <v>-0.1541135436267549</v>
+        <v>-0.2513629445286991</v>
       </c>
       <c r="X10">
-        <v>-0.1541135436267549</v>
+        <v>-0.2513629445286991</v>
       </c>
       <c r="Y10">
-        <v>-0.1541135436267549</v>
+        <v>-0.2513629445286991</v>
       </c>
       <c r="Z10">
-        <v>-0.1541135436267549</v>
+        <v>-0.2513629445286991</v>
       </c>
       <c r="AA10">
-        <v>-0.1541135436267549</v>
+        <v>-0.2513629445286991</v>
       </c>
       <c r="AB10">
-        <v>-0.1541135436267549</v>
+        <v>-0.2513629445286991</v>
       </c>
       <c r="AC10">
-        <v>-0.1541135436267549</v>
+        <v>-0.2513629445286991</v>
       </c>
       <c r="AD10">
-        <v>-0.1541135436267549</v>
+        <v>-0.2513629445286991</v>
       </c>
       <c r="AE10">
-        <v>-0.1541135436267549</v>
+        <v>-0.2513629445286991</v>
       </c>
       <c r="AF10">
-        <v>-0.1541135436267549</v>
+        <v>-0.2513629445286991</v>
       </c>
       <c r="AG10">
-        <v>-0.1541135436267549</v>
+        <v>-0.2513629445286991</v>
       </c>
       <c r="AH10">
-        <v>-0.1541135436267549</v>
+        <v>-0.2513629445286991</v>
       </c>
       <c r="AI10">
-        <v>-0.1541135436267549</v>
+        <v>-0.2513629445286991</v>
       </c>
       <c r="AJ10">
-        <v>-0.1541135436267549</v>
+        <v>-0.2513629445286991</v>
       </c>
       <c r="AK10">
-        <v>-0.1541135436267549</v>
+        <v>-0.2513629445286991</v>
       </c>
       <c r="AL10">
-        <v>-0.1541135436267549</v>
+        <v>-0.2513629445286991</v>
       </c>
       <c r="AM10">
-        <v>-0.1541135436267549</v>
+        <v>-0.2513629445286991</v>
       </c>
       <c r="AN10">
-        <v>-0.1541135436267549</v>
+        <v>-0.2513629445286991</v>
       </c>
       <c r="AO10">
-        <v>-0.1541135436267549</v>
+        <v>-0.2513629445286991</v>
       </c>
       <c r="AP10">
-        <v>-0.1541135436267549</v>
+        <v>-0.2513629445286991</v>
       </c>
       <c r="AQ10">
-        <v>-0.1541135436267549</v>
+        <v>-0.2513629445286991</v>
       </c>
       <c r="AR10">
-        <v>-0.1541135436267549</v>
+        <v>-0.2513629445286991</v>
       </c>
       <c r="AS10">
-        <v>-0.1541135436267549</v>
+        <v>-0.2513629445286991</v>
       </c>
       <c r="AT10">
-        <v>-0.1541135436267549</v>
+        <v>-0.2513629445286991</v>
       </c>
       <c r="AU10">
-        <v>-0.1541135436267549</v>
+        <v>-0.2513629445286991</v>
       </c>
       <c r="AV10">
-        <v>-0.1541135436267549</v>
+        <v>-0.2513629445286991</v>
       </c>
       <c r="AW10">
-        <v>-0.1541135436267549</v>
+        <v>-0.2513629445286991</v>
       </c>
       <c r="AX10">
-        <v>-0.1541135436267549</v>
+        <v>-0.2513629445286991</v>
       </c>
       <c r="AY10">
-        <v>-0.1541135436267549</v>
+        <v>-0.2513629445286991</v>
       </c>
       <c r="AZ10">
-        <v>-0.1541135436267549</v>
+        <v>-0.2513629445286991</v>
       </c>
       <c r="BA10">
-        <v>-0.1541135436267549</v>
+        <v>-0.2513629445286991</v>
       </c>
     </row>
     <row r="11" spans="1:53">
       <c r="A11" s="1">
-        <v>42004</v>
-      </c>
-      <c r="K11">
-        <v>-0.09051772246182477</v>
-      </c>
-      <c r="L11">
-        <v>-0.04078520160535337</v>
-      </c>
-      <c r="M11">
-        <v>-0.05125851421730054</v>
-      </c>
-      <c r="N11">
-        <v>-0.02003709364999384</v>
-      </c>
-      <c r="O11">
-        <v>0.2273278155300318</v>
-      </c>
-      <c r="P11">
-        <v>-0.075754880139145</v>
+        <v>43100</v>
       </c>
       <c r="Q11">
-        <v>-0.0505112103320271</v>
+        <v>-0.1397305313408204</v>
       </c>
       <c r="R11">
-        <v>0.2992729818363626</v>
+        <v>-0.1327813263047761</v>
       </c>
       <c r="S11">
-        <v>0.2992729818363626</v>
+        <v>-0.1100689213475947</v>
       </c>
       <c r="T11">
-        <v>0.2992729818363626</v>
+        <v>-0.2555440101933759</v>
       </c>
       <c r="U11">
-        <v>0.2992729818363626</v>
+        <v>0.2788833036191374</v>
       </c>
       <c r="V11">
-        <v>0.2992729818363626</v>
+        <v>0.1213692818849532</v>
       </c>
       <c r="W11">
-        <v>0.2992729818363626</v>
+        <v>0.2219444472046028</v>
       </c>
       <c r="X11">
-        <v>0.2992729818363626</v>
+        <v>0.2729872858366011</v>
       </c>
       <c r="Y11">
-        <v>0.2992729818363626</v>
+        <v>0.2729872858366011</v>
       </c>
       <c r="Z11">
-        <v>0.2992729818363626</v>
+        <v>0.2729872858366011</v>
       </c>
       <c r="AA11">
-        <v>0.2992729818363626</v>
+        <v>0.2729872858366011</v>
       </c>
       <c r="AB11">
-        <v>0.2992729818363626</v>
+        <v>0.2729872858366011</v>
       </c>
       <c r="AC11">
-        <v>0.2992729818363626</v>
+        <v>0.2729872858366011</v>
       </c>
       <c r="AD11">
-        <v>0.2992729818363626</v>
+        <v>0.2729872858366011</v>
       </c>
       <c r="AE11">
-        <v>0.2992729818363626</v>
+        <v>0.2729872858366011</v>
       </c>
       <c r="AF11">
-        <v>0.2992729818363626</v>
+        <v>0.2729872858366011</v>
       </c>
       <c r="AG11">
-        <v>0.2992729818363626</v>
+        <v>0.2729872858366011</v>
       </c>
       <c r="AH11">
-        <v>0.2992729818363626</v>
+        <v>0.2729872858366011</v>
       </c>
       <c r="AI11">
-        <v>0.2992729818363626</v>
+        <v>0.2729872858366011</v>
       </c>
       <c r="AJ11">
-        <v>0.2992729818363626</v>
+        <v>0.2729872858366011</v>
       </c>
       <c r="AK11">
-        <v>0.2992729818363626</v>
+        <v>0.2729872858366011</v>
       </c>
       <c r="AL11">
-        <v>0.2992729818363626</v>
+        <v>0.2729872858366011</v>
       </c>
       <c r="AM11">
-        <v>0.2992729818363626</v>
+        <v>0.2729872858366011</v>
       </c>
       <c r="AN11">
-        <v>0.2992729818363626</v>
+        <v>0.2729872858366011</v>
       </c>
       <c r="AO11">
-        <v>0.2992729818363626</v>
+        <v>0.2729872858366011</v>
       </c>
       <c r="AP11">
-        <v>0.2992729818363626</v>
+        <v>0.2729872858366011</v>
       </c>
       <c r="AQ11">
-        <v>0.2992729818363626</v>
+        <v>0.2729872858366011</v>
       </c>
       <c r="AR11">
-        <v>0.2992729818363626</v>
+        <v>0.2729872858366011</v>
       </c>
       <c r="AS11">
-        <v>0.2992729818363626</v>
+        <v>0.2729872858366011</v>
       </c>
       <c r="AT11">
-        <v>0.2992729818363626</v>
+        <v>0.2729872858366011</v>
       </c>
       <c r="AU11">
-        <v>0.2992729818363626</v>
+        <v>0.2729872858366011</v>
       </c>
       <c r="AV11">
-        <v>0.2992729818363626</v>
+        <v>0.2729872858366011</v>
       </c>
       <c r="AW11">
-        <v>0.2992729818363626</v>
+        <v>0.2729872858366011</v>
       </c>
       <c r="AX11">
-        <v>0.2992729818363626</v>
+        <v>0.2729872858366011</v>
       </c>
       <c r="AY11">
-        <v>0.2992729818363626</v>
+        <v>0.2729872858366011</v>
       </c>
       <c r="AZ11">
-        <v>0.2992729818363626</v>
+        <v>0.2729872858366011</v>
       </c>
       <c r="BA11">
-        <v>0.2992729818363626</v>
+        <v>0.2729872858366011</v>
       </c>
     </row>
     <row r="12" spans="1:53">
       <c r="A12" s="1">
-        <v>42369</v>
-      </c>
-      <c r="M12">
-        <v>-0.04207204777783025</v>
-      </c>
-      <c r="N12">
-        <v>-0.04612035657505231</v>
-      </c>
-      <c r="O12">
-        <v>0.001779459905826286</v>
-      </c>
-      <c r="P12">
-        <v>-0.2383077634182995</v>
-      </c>
-      <c r="Q12">
-        <v>-0.2723669344146917</v>
-      </c>
-      <c r="R12">
-        <v>-0.5761528471665445</v>
+        <v>43465</v>
       </c>
       <c r="S12">
-        <v>-0.5511352283395277</v>
+        <v>-0.1186583371030836</v>
       </c>
       <c r="T12">
-        <v>-0.5764019548604726</v>
+        <v>-0.1459147258664695</v>
       </c>
       <c r="U12">
-        <v>-0.6011708148489947</v>
+        <v>-0.1416348838281123</v>
       </c>
       <c r="V12">
-        <v>-0.6011708148489947</v>
+        <v>-0.06802695342326137</v>
       </c>
       <c r="W12">
-        <v>-0.6011708148489947</v>
+        <v>0.1319881130530387</v>
       </c>
       <c r="X12">
-        <v>-0.6011708148489947</v>
+        <v>-0.1459594536071473</v>
       </c>
       <c r="Y12">
-        <v>-0.6011708148489947</v>
+        <v>-0.003510046413479628</v>
       </c>
       <c r="Z12">
-        <v>-0.6011708148489947</v>
+        <v>0.1493219406571766</v>
       </c>
       <c r="AA12">
-        <v>-0.6011708148489947</v>
+        <v>0.2997710475070248</v>
       </c>
       <c r="AB12">
-        <v>-0.6011708148489947</v>
+        <v>0.3750834813967208</v>
       </c>
       <c r="AC12">
-        <v>-0.6011708148489947</v>
+        <v>0.1243096661369014</v>
       </c>
       <c r="AD12">
-        <v>-0.6011708148489947</v>
+        <v>0.1243096661369014</v>
       </c>
       <c r="AE12">
-        <v>-0.6011708148489947</v>
+        <v>0.1243096661369014</v>
       </c>
       <c r="AF12">
-        <v>-0.6011708148489947</v>
+        <v>0.1243096661369014</v>
       </c>
       <c r="AG12">
-        <v>-0.6011708148489947</v>
+        <v>0.1243096661369014</v>
       </c>
       <c r="AH12">
-        <v>-0.6011708148489947</v>
+        <v>0.1243096661369014</v>
       </c>
       <c r="AI12">
-        <v>-0.6011708148489947</v>
+        <v>0.1243096661369014</v>
       </c>
       <c r="AJ12">
-        <v>-0.6011708148489947</v>
+        <v>0.1243096661369014</v>
       </c>
       <c r="AK12">
-        <v>-0.6011708148489947</v>
+        <v>0.1243096661369014</v>
       </c>
       <c r="AL12">
-        <v>-0.6011708148489947</v>
+        <v>0.1243096661369014</v>
       </c>
       <c r="AM12">
-        <v>-0.6011708148489947</v>
+        <v>0.1243096661369014</v>
       </c>
       <c r="AN12">
-        <v>-0.6011708148489947</v>
+        <v>0.1243096661369014</v>
       </c>
       <c r="AO12">
-        <v>-0.6011708148489947</v>
+        <v>0.1243096661369014</v>
       </c>
       <c r="AP12">
-        <v>-0.6011708148489947</v>
+        <v>0.1243096661369014</v>
       </c>
       <c r="AQ12">
-        <v>-0.6011708148489947</v>
+        <v>0.1243096661369014</v>
       </c>
       <c r="AR12">
-        <v>-0.6011708148489947</v>
+        <v>0.1243096661369014</v>
       </c>
       <c r="AS12">
-        <v>-0.6011708148489947</v>
+        <v>0.1243096661369014</v>
       </c>
       <c r="AT12">
-        <v>-0.6011708148489947</v>
+        <v>0.1243096661369014</v>
       </c>
       <c r="AU12">
-        <v>-0.6011708148489947</v>
+        <v>0.1243096661369014</v>
       </c>
       <c r="AV12">
-        <v>-0.6011708148489947</v>
+        <v>0.1243096661369014</v>
       </c>
       <c r="AW12">
-        <v>-0.6011708148489947</v>
+        <v>0.1243096661369014</v>
       </c>
       <c r="AX12">
-        <v>-0.6011708148489947</v>
+        <v>0.1243096661369014</v>
       </c>
       <c r="AY12">
-        <v>-0.6011708148489947</v>
+        <v>0.1243096661369014</v>
       </c>
       <c r="AZ12">
-        <v>-0.6011708148489947</v>
+        <v>0.1243096661369014</v>
       </c>
       <c r="BA12">
-        <v>-0.6011708148489947</v>
+        <v>0.1243096661369014</v>
       </c>
     </row>
     <row r="13" spans="1:53">
       <c r="A13" s="1">
-        <v>42735</v>
-      </c>
-      <c r="O13">
-        <v>-0.03123432717967445</v>
-      </c>
-      <c r="P13">
-        <v>-0.1383753234272644</v>
-      </c>
-      <c r="Q13">
-        <v>-0.1573879283727764</v>
-      </c>
-      <c r="R13">
-        <v>-0.2318455351884685</v>
-      </c>
-      <c r="S13">
-        <v>-0.05011389829933099</v>
-      </c>
-      <c r="T13">
-        <v>-0.2011999787958185</v>
+        <v>43830</v>
       </c>
       <c r="U13">
-        <v>-0.251362944528688</v>
+        <v>-0.1145037154265616</v>
       </c>
       <c r="V13">
-        <v>-0.251362944528688</v>
+        <v>-0.1057615980748494</v>
       </c>
       <c r="W13">
-        <v>-0.251362944528688</v>
+        <v>-0.1311012291692171</v>
       </c>
       <c r="X13">
-        <v>-0.251362944528688</v>
+        <v>-0.1825768856163257</v>
       </c>
       <c r="Y13">
-        <v>-0.251362944528688</v>
+        <v>-0.05140618367763805</v>
       </c>
       <c r="Z13">
-        <v>-0.251362944528688</v>
+        <v>0.2006993856294326</v>
       </c>
       <c r="AA13">
-        <v>-0.251362944528688</v>
+        <v>0.320550640510775</v>
       </c>
       <c r="AB13">
-        <v>-0.251362944528688</v>
+        <v>-0.2305835819295776</v>
       </c>
       <c r="AC13">
-        <v>-0.251362944528688</v>
+        <v>-0.3355560014489334</v>
       </c>
       <c r="AD13">
-        <v>-0.251362944528688</v>
+        <v>-0.4278219446121501</v>
       </c>
       <c r="AE13">
-        <v>-0.251362944528688</v>
+        <v>-0.5527494010853284</v>
       </c>
       <c r="AF13">
-        <v>-0.251362944528688</v>
+        <v>-0.4025146932836732</v>
       </c>
       <c r="AG13">
-        <v>-0.251362944528688</v>
+        <v>-0.4025146932836732</v>
       </c>
       <c r="AH13">
-        <v>-0.251362944528688</v>
+        <v>-0.4025146932836732</v>
       </c>
       <c r="AI13">
-        <v>-0.251362944528688</v>
+        <v>-0.4025146932836732</v>
       </c>
       <c r="AJ13">
-        <v>-0.251362944528688</v>
+        <v>-0.4025146932836732</v>
       </c>
       <c r="AK13">
-        <v>-0.251362944528688</v>
+        <v>-0.4025146932836732</v>
       </c>
       <c r="AL13">
-        <v>-0.251362944528688</v>
+        <v>-0.4025146932836732</v>
       </c>
       <c r="AM13">
-        <v>-0.251362944528688</v>
+        <v>-0.4025146932836732</v>
       </c>
       <c r="AN13">
-        <v>-0.251362944528688</v>
+        <v>-0.4025146932836732</v>
       </c>
       <c r="AO13">
-        <v>-0.251362944528688</v>
+        <v>-0.4025146932836732</v>
       </c>
       <c r="AP13">
-        <v>-0.251362944528688</v>
+        <v>-0.4025146932836732</v>
       </c>
       <c r="AQ13">
-        <v>-0.251362944528688</v>
+        <v>-0.4025146932836732</v>
       </c>
       <c r="AR13">
-        <v>-0.251362944528688</v>
+        <v>-0.4025146932836732</v>
       </c>
       <c r="AS13">
-        <v>-0.251362944528688</v>
+        <v>-0.4025146932836732</v>
       </c>
       <c r="AT13">
-        <v>-0.251362944528688</v>
+        <v>-0.4025146932836732</v>
       </c>
       <c r="AU13">
-        <v>-0.251362944528688</v>
+        <v>-0.4025146932836732</v>
       </c>
       <c r="AV13">
-        <v>-0.251362944528688</v>
+        <v>-0.4025146932836732</v>
       </c>
       <c r="AW13">
-        <v>-0.251362944528688</v>
+        <v>-0.4025146932836732</v>
       </c>
       <c r="AX13">
-        <v>-0.251362944528688</v>
+        <v>-0.4025146932836732</v>
       </c>
       <c r="AY13">
-        <v>-0.251362944528688</v>
+        <v>-0.4025146932836732</v>
       </c>
       <c r="AZ13">
-        <v>-0.251362944528688</v>
+        <v>-0.4025146932836732</v>
       </c>
       <c r="BA13">
-        <v>-0.251362944528688</v>
+        <v>-0.4025146932836732</v>
       </c>
     </row>
     <row r="14" spans="1:53">
       <c r="A14" s="1">
-        <v>43100</v>
-      </c>
-      <c r="Q14">
-        <v>-0.1397305313408204</v>
-      </c>
-      <c r="R14">
-        <v>-0.132781326304765</v>
-      </c>
-      <c r="S14">
-        <v>-0.1100689213476058</v>
-      </c>
-      <c r="T14">
-        <v>-0.2555440101933648</v>
-      </c>
-      <c r="U14">
-        <v>0.2788833036191596</v>
-      </c>
-      <c r="V14">
-        <v>0.1213692818849532</v>
-      </c>
-      <c r="W14">
-        <v>0.2219444472046028</v>
+        <v>44196</v>
       </c>
       <c r="X14">
-        <v>0.2729872858366011</v>
+        <v>-0.1801888798317108</v>
       </c>
       <c r="Y14">
-        <v>0.2729872858366011</v>
+        <v>-0.1630478287059978</v>
       </c>
       <c r="Z14">
-        <v>0.2729872858366011</v>
+        <v>-0.1038036663792541</v>
       </c>
       <c r="AA14">
-        <v>0.2729872858366011</v>
+        <v>0.02707231012752942</v>
       </c>
       <c r="AB14">
-        <v>0.2729872858366011</v>
+        <v>-0.2087674606261358</v>
       </c>
       <c r="AC14">
-        <v>0.2729872858366011</v>
+        <v>-0.3121234745279589</v>
       </c>
       <c r="AD14">
-        <v>0.2729872858366011</v>
+        <v>-0.5866687821558636</v>
       </c>
       <c r="AE14">
-        <v>0.2729872858366011</v>
+        <v>-0.4642429512678015</v>
       </c>
       <c r="AF14">
-        <v>0.2729872858366011</v>
+        <v>-0.3292346503903532</v>
       </c>
       <c r="AG14">
-        <v>0.2729872858366011</v>
+        <v>-0.3695630056287147</v>
       </c>
       <c r="AH14">
-        <v>0.2729872858366011</v>
+        <v>-1.026566979837429</v>
       </c>
       <c r="AI14">
-        <v>0.2729872858366011</v>
+        <v>-0.9773044327964553</v>
       </c>
       <c r="AJ14">
-        <v>0.2729872858366011</v>
+        <v>-0.9275935716973494</v>
       </c>
       <c r="AK14">
-        <v>0.2729872858366011</v>
+        <v>-0.9275935716973494</v>
       </c>
       <c r="AL14">
-        <v>0.2729872858366011</v>
+        <v>-0.9275935716973494</v>
       </c>
       <c r="AM14">
-        <v>0.2729872858366011</v>
+        <v>-0.9275935716973494</v>
       </c>
       <c r="AN14">
-        <v>0.2729872858366011</v>
+        <v>-0.9275935716973494</v>
       </c>
       <c r="AO14">
-        <v>0.2729872858366011</v>
+        <v>-0.9275935716973494</v>
       </c>
       <c r="AP14">
-        <v>0.2729872858366011</v>
+        <v>-0.9275935716973494</v>
       </c>
       <c r="AQ14">
-        <v>0.2729872858366011</v>
+        <v>-0.9275935716973494</v>
       </c>
       <c r="AR14">
-        <v>0.2729872858366011</v>
+        <v>-0.9275935716973494</v>
       </c>
       <c r="AS14">
-        <v>0.2729872858366011</v>
+        <v>-0.9275935716973494</v>
       </c>
       <c r="AT14">
-        <v>0.2729872858366011</v>
+        <v>-0.9275935716973494</v>
       </c>
       <c r="AU14">
-        <v>0.2729872858366011</v>
+        <v>-0.9275935716973494</v>
       </c>
       <c r="AV14">
-        <v>0.2729872858366011</v>
+        <v>-0.9275935716973494</v>
       </c>
       <c r="AW14">
-        <v>0.2729872858366011</v>
+        <v>-0.9275935716973494</v>
       </c>
       <c r="AX14">
-        <v>0.2729872858366011</v>
+        <v>-0.9275935716973494</v>
       </c>
       <c r="AY14">
-        <v>0.2729872858366011</v>
+        <v>-0.9275935716973494</v>
       </c>
       <c r="AZ14">
-        <v>0.2729872858366011</v>
+        <v>-0.9275935716973494</v>
       </c>
       <c r="BA14">
-        <v>0.2729872858366011</v>
+        <v>-0.9275935716973494</v>
       </c>
     </row>
     <row r="15" spans="1:53">
       <c r="A15" s="1">
-        <v>43465</v>
-      </c>
-      <c r="S15">
-        <v>-0.1186583371030947</v>
-      </c>
-      <c r="T15">
-        <v>-0.1459147258664584</v>
-      </c>
-      <c r="U15">
-        <v>-0.1416348838281123</v>
-      </c>
-      <c r="V15">
-        <v>-0.06802695342326137</v>
-      </c>
-      <c r="W15">
-        <v>0.1319881130530609</v>
-      </c>
-      <c r="X15">
-        <v>-0.1459594536071473</v>
-      </c>
-      <c r="Y15">
-        <v>-0.003510046413479628</v>
-      </c>
-      <c r="Z15">
-        <v>0.1493219406571766</v>
-      </c>
-      <c r="AA15">
-        <v>0.2997710475070026</v>
+        <v>44561</v>
       </c>
       <c r="AB15">
-        <v>0.3750834813966986</v>
+        <v>-0.1264348945772098</v>
       </c>
       <c r="AC15">
-        <v>0.1243096661368792</v>
+        <v>-0.1738126685466579</v>
       </c>
       <c r="AD15">
-        <v>0.1243096661368792</v>
+        <v>-0.21192065977782</v>
       </c>
       <c r="AE15">
-        <v>0.1243096661368792</v>
+        <v>-0.1841926149812489</v>
       </c>
       <c r="AF15">
-        <v>0.1243096661368792</v>
+        <v>-0.09082057608673644</v>
       </c>
       <c r="AG15">
-        <v>0.1243096661368792</v>
+        <v>-7.030524571405294E-05</v>
       </c>
       <c r="AH15">
-        <v>0.1243096661368792</v>
+        <v>-1.192393303545602</v>
       </c>
       <c r="AI15">
-        <v>0.1243096661368792</v>
+        <v>-0.6059768475674798</v>
       </c>
       <c r="AJ15">
-        <v>0.1243096661368792</v>
+        <v>-0.2970982048607906</v>
       </c>
       <c r="AK15">
-        <v>0.1243096661368792</v>
+        <v>0.3934374973223687</v>
       </c>
       <c r="AL15">
-        <v>0.1243096661368792</v>
+        <v>0.3179894933462268</v>
       </c>
       <c r="AM15">
-        <v>0.1243096661368792</v>
+        <v>0.2925841306726351</v>
       </c>
       <c r="AN15">
-        <v>0.1243096661368792</v>
+        <v>0.2398177392026746</v>
       </c>
       <c r="AO15">
-        <v>0.1243096661368792</v>
+        <v>0.2398177392026746</v>
       </c>
       <c r="AP15">
-        <v>0.1243096661368792</v>
+        <v>0.2398177392026746</v>
       </c>
       <c r="AQ15">
-        <v>0.1243096661368792</v>
+        <v>0.2398177392026746</v>
       </c>
       <c r="AR15">
-        <v>0.1243096661368792</v>
+        <v>0.2398177392026746</v>
       </c>
       <c r="AS15">
-        <v>0.1243096661368792</v>
+        <v>0.2398177392026746</v>
       </c>
       <c r="AT15">
-        <v>0.1243096661368792</v>
+        <v>0.2398177392026746</v>
       </c>
       <c r="AU15">
-        <v>0.1243096661368792</v>
+        <v>0.2398177392026746</v>
       </c>
       <c r="AV15">
-        <v>0.1243096661368792</v>
+        <v>0.2398177392026746</v>
       </c>
       <c r="AW15">
-        <v>0.1243096661368792</v>
+        <v>0.2398177392026746</v>
       </c>
       <c r="AX15">
-        <v>0.1243096661368792</v>
+        <v>0.2398177392026746</v>
       </c>
       <c r="AY15">
-        <v>0.1243096661368792</v>
+        <v>0.2398177392026746</v>
       </c>
       <c r="AZ15">
-        <v>0.1243096661368792</v>
+        <v>0.2398177392026746</v>
       </c>
       <c r="BA15">
-        <v>0.1243096661368792</v>
+        <v>0.2398177392026746</v>
       </c>
     </row>
     <row r="16" spans="1:53">
       <c r="A16" s="1">
-        <v>43830</v>
-      </c>
-      <c r="U16">
-        <v>-0.1145037154265394</v>
-      </c>
-      <c r="V16">
-        <v>-0.1057615980748605</v>
-      </c>
-      <c r="W16">
-        <v>-0.1311012291692171</v>
-      </c>
-      <c r="X16">
-        <v>-0.1825768856163368</v>
-      </c>
-      <c r="Y16">
-        <v>-0.05140618367761585</v>
-      </c>
-      <c r="Z16">
-        <v>0.2006993856294326</v>
-      </c>
-      <c r="AA16">
-        <v>0.3205506405107528</v>
-      </c>
-      <c r="AB16">
-        <v>-0.2305835819295887</v>
-      </c>
-      <c r="AC16">
-        <v>-0.3355560014489445</v>
-      </c>
-      <c r="AD16">
-        <v>-0.4278219446121612</v>
-      </c>
-      <c r="AE16">
-        <v>-0.5527494010853284</v>
+        <v>44926</v>
       </c>
       <c r="AF16">
-        <v>-0.402514693283651</v>
+        <v>-0.1342737069897293</v>
       </c>
       <c r="AG16">
-        <v>-0.402514693283651</v>
+        <v>-0.1274756116282139</v>
       </c>
       <c r="AH16">
-        <v>-0.402514693283651</v>
+        <v>-0.3130798859331874</v>
       </c>
       <c r="AI16">
-        <v>-0.402514693283651</v>
+        <v>-0.3011419025451434</v>
       </c>
       <c r="AJ16">
-        <v>-0.402514693283651</v>
+        <v>-0.07610064641832004</v>
       </c>
       <c r="AK16">
-        <v>-0.402514693283651</v>
+        <v>0.3118176492880709</v>
       </c>
       <c r="AL16">
-        <v>-0.402514693283651</v>
+        <v>0.2504325414754982</v>
       </c>
       <c r="AM16">
-        <v>-0.402514693283651</v>
+        <v>0.2712080204189338</v>
       </c>
       <c r="AN16">
-        <v>-0.402514693283651</v>
+        <v>0.9873422665386711</v>
       </c>
       <c r="AO16">
-        <v>-0.402514693283651</v>
+        <v>0.4625436162124519</v>
       </c>
       <c r="AP16">
-        <v>-0.402514693283651</v>
+        <v>0.4636049209196802</v>
       </c>
       <c r="AQ16">
-        <v>-0.402514693283651</v>
+        <v>0.5395297571184399</v>
       </c>
       <c r="AR16">
-        <v>-0.402514693283651</v>
+        <v>0.539177729005802</v>
       </c>
       <c r="AS16">
-        <v>-0.402514693283651</v>
+        <v>0.539177729005802</v>
       </c>
       <c r="AT16">
-        <v>-0.402514693283651</v>
+        <v>0.539177729005802</v>
       </c>
       <c r="AU16">
-        <v>-0.402514693283651</v>
+        <v>0.539177729005802</v>
       </c>
       <c r="AV16">
-        <v>-0.402514693283651</v>
+        <v>0.539177729005802</v>
       </c>
       <c r="AW16">
-        <v>-0.402514693283651</v>
+        <v>0.539177729005802</v>
       </c>
       <c r="AX16">
-        <v>-0.402514693283651</v>
+        <v>0.539177729005802</v>
       </c>
       <c r="AY16">
-        <v>-0.402514693283651</v>
+        <v>0.539177729005802</v>
       </c>
       <c r="AZ16">
-        <v>-0.402514693283651</v>
+        <v>0.539177729005802</v>
       </c>
       <c r="BA16">
-        <v>-0.402514693283651</v>
+        <v>0.539177729005802</v>
       </c>
     </row>
     <row r="17" spans="1:53">
       <c r="A17" s="1">
-        <v>44196</v>
-      </c>
-      <c r="X17">
-        <v>-0.1801888798316997</v>
-      </c>
-      <c r="Y17">
-        <v>-0.1630478287059978</v>
-      </c>
-      <c r="Z17">
-        <v>-0.1038036663792652</v>
-      </c>
-      <c r="AA17">
-        <v>0.02707231012755162</v>
-      </c>
-      <c r="AB17">
-        <v>-0.2087674606261247</v>
-      </c>
-      <c r="AC17">
-        <v>-0.3121234745279589</v>
-      </c>
-      <c r="AD17">
-        <v>-0.5866687821558636</v>
-      </c>
-      <c r="AE17">
-        <v>-0.4642429512678015</v>
-      </c>
-      <c r="AF17">
-        <v>-0.3292346503903532</v>
-      </c>
-      <c r="AG17">
-        <v>-0.3695630056286925</v>
-      </c>
-      <c r="AH17">
-        <v>-1.026566979837418</v>
-      </c>
-      <c r="AI17">
-        <v>-0.9773044327964442</v>
+        <v>45291</v>
       </c>
       <c r="AJ17">
-        <v>-0.9275935716973271</v>
+        <v>-0.1937244238038316</v>
       </c>
       <c r="AK17">
-        <v>-0.9275935716973271</v>
+        <v>-0.01509715373498866</v>
       </c>
       <c r="AL17">
-        <v>-0.9275935716973271</v>
+        <v>-0.07757203770002441</v>
       </c>
       <c r="AM17">
-        <v>-0.9275935716973271</v>
+        <v>-0.05021256318445966</v>
       </c>
       <c r="AN17">
-        <v>-0.9275935716973271</v>
+        <v>0.03847099707416923</v>
       </c>
       <c r="AO17">
-        <v>-0.9275935716973271</v>
+        <v>-0.07481135892478674</v>
       </c>
       <c r="AP17">
-        <v>-0.9275935716973271</v>
+        <v>-0.01166369079491636</v>
       </c>
       <c r="AQ17">
-        <v>-0.9275935716973271</v>
+        <v>0.4798376613666333</v>
       </c>
       <c r="AR17">
-        <v>-0.9275935716973271</v>
+        <v>0.7605498842334635</v>
       </c>
       <c r="AS17">
-        <v>-0.9275935716973271</v>
+        <v>0.4458909783648934</v>
       </c>
       <c r="AT17">
-        <v>-0.9275935716973271</v>
+        <v>0.6216390921348403</v>
       </c>
       <c r="AU17">
-        <v>-0.9275935716973271</v>
+        <v>0.5469773526883603</v>
       </c>
       <c r="AV17">
-        <v>-0.9275935716973271</v>
+        <v>0.6992203852886458</v>
       </c>
       <c r="AW17">
-        <v>-0.9275935716973271</v>
+        <v>0.6992203852886458</v>
       </c>
       <c r="AX17">
-        <v>-0.9275935716973271</v>
+        <v>0.6992203852886458</v>
       </c>
       <c r="AY17">
-        <v>-0.9275935716973271</v>
+        <v>0.6992203852886458</v>
       </c>
       <c r="AZ17">
-        <v>-0.9275935716973271</v>
+        <v>0.6992203852886458</v>
       </c>
       <c r="BA17">
-        <v>-0.9275935716973271</v>
+        <v>0.6992203852886458</v>
       </c>
     </row>
     <row r="18" spans="1:53">
       <c r="A18" s="1">
-        <v>44561</v>
-      </c>
-      <c r="AB18">
-        <v>-0.1264348945772209</v>
-      </c>
-      <c r="AC18">
-        <v>-0.1738126685466468</v>
-      </c>
-      <c r="AD18">
-        <v>-0.2119206597778422</v>
-      </c>
-      <c r="AE18">
-        <v>-0.18419261498126</v>
-      </c>
-      <c r="AF18">
-        <v>-0.09082057608673644</v>
-      </c>
-      <c r="AG18">
-        <v>-7.030524572515517E-05</v>
-      </c>
-      <c r="AH18">
-        <v>-1.192393303545591</v>
-      </c>
-      <c r="AI18">
-        <v>-0.6059768475674909</v>
-      </c>
-      <c r="AJ18">
-        <v>-0.2970982048608128</v>
-      </c>
-      <c r="AK18">
-        <v>0.3934374973223465</v>
-      </c>
-      <c r="AL18">
-        <v>0.3179894933462268</v>
-      </c>
-      <c r="AM18">
-        <v>0.2925841306726129</v>
+        <v>45657</v>
       </c>
       <c r="AN18">
-        <v>0.2398177392026746</v>
+        <v>-0.05090004208087029</v>
       </c>
       <c r="AO18">
-        <v>0.2398177392026746</v>
+        <v>-0.1077624852032777</v>
       </c>
       <c r="AP18">
-        <v>0.2398177392026746</v>
+        <v>-0.08875904702142501</v>
       </c>
       <c r="AQ18">
-        <v>0.2398177392026746</v>
+        <v>-0.1060546019570174</v>
       </c>
       <c r="AR18">
-        <v>0.2398177392026746</v>
+        <v>-0.05891731780506282</v>
       </c>
       <c r="AS18">
-        <v>0.2398177392026746</v>
+        <v>-0.155686908935937</v>
       </c>
       <c r="AT18">
-        <v>0.2398177392026746</v>
+        <v>-0.1830321574487592</v>
       </c>
       <c r="AU18">
-        <v>0.2398177392026746</v>
+        <v>-0.3486394561975636</v>
       </c>
       <c r="AV18">
-        <v>0.2398177392026746</v>
+        <v>-1.000055557176827</v>
       </c>
       <c r="AW18">
-        <v>0.2398177392026746</v>
+        <v>-0.9698273264413304</v>
       </c>
       <c r="AX18">
-        <v>0.2398177392026746</v>
+        <v>-0.6768900623516871</v>
       </c>
       <c r="AY18">
-        <v>0.2398177392026746</v>
+        <v>-0.9251966500764652</v>
       </c>
       <c r="AZ18">
-        <v>0.2398177392026746</v>
+        <v>-0.850803046382087</v>
       </c>
       <c r="BA18">
-        <v>0.2398177392026746</v>
+        <v>-0.850803046382087</v>
       </c>
     </row>
     <row r="19" spans="1:53">
       <c r="A19" s="1">
-        <v>44926</v>
-      </c>
-      <c r="AF19">
-        <v>-0.1342737069897404</v>
-      </c>
-      <c r="AG19">
-        <v>-0.1274756116282028</v>
-      </c>
-      <c r="AH19">
-        <v>-0.3130798859331985</v>
-      </c>
-      <c r="AI19">
-        <v>-0.3011419025451434</v>
-      </c>
-      <c r="AJ19">
-        <v>-0.07610064641830894</v>
-      </c>
-      <c r="AK19">
-        <v>0.3118176492880931</v>
-      </c>
-      <c r="AL19">
-        <v>0.2504325414754982</v>
-      </c>
-      <c r="AM19">
-        <v>0.2712080204189338</v>
-      </c>
-      <c r="AN19">
-        <v>0.9873422665386489</v>
-      </c>
-      <c r="AO19">
-        <v>0.4625436162124519</v>
-      </c>
-      <c r="AP19">
-        <v>0.463604920919658</v>
-      </c>
-      <c r="AQ19">
-        <v>0.5395297571184177</v>
+        <v>46022</v>
       </c>
       <c r="AR19">
-        <v>0.539177729005802</v>
+        <v>-0.040894279010395</v>
       </c>
       <c r="AS19">
-        <v>0.539177729005802</v>
+        <v>-0.1133647393755433</v>
       </c>
       <c r="AT19">
-        <v>0.539177729005802</v>
+        <v>-0.0733182145321476</v>
       </c>
       <c r="AU19">
-        <v>0.539177729005802</v>
+        <v>-0.09266255584036154</v>
       </c>
       <c r="AV19">
-        <v>0.539177729005802</v>
+        <v>-0.08363380984691693</v>
       </c>
       <c r="AW19">
-        <v>0.539177729005802</v>
+        <v>-0.02526714717145939</v>
       </c>
       <c r="AX19">
-        <v>0.539177729005802</v>
+        <v>0.4053576788542124</v>
       </c>
       <c r="AY19">
-        <v>0.539177729005802</v>
+        <v>1.108275029474215</v>
       </c>
       <c r="AZ19">
-        <v>0.539177729005802</v>
+        <v>0.5724023773773235</v>
       </c>
       <c r="BA19">
-        <v>0.539177729005802</v>
+        <v>1.137079304717736</v>
       </c>
     </row>
     <row r="20" spans="1:53">
       <c r="A20" s="1">
-        <v>45291</v>
-      </c>
-      <c r="AJ20">
-        <v>-0.1937244238038316</v>
-      </c>
-      <c r="AK20">
-        <v>-0.01509715373498866</v>
-      </c>
-      <c r="AL20">
-        <v>-0.07757203770000221</v>
-      </c>
-      <c r="AM20">
-        <v>-0.05021256318447076</v>
-      </c>
-      <c r="AN20">
-        <v>0.03847099707416923</v>
-      </c>
-      <c r="AO20">
-        <v>-0.07481135892478674</v>
-      </c>
-      <c r="AP20">
-        <v>-0.01166369079491636</v>
-      </c>
-      <c r="AQ20">
-        <v>0.4798376613666333</v>
-      </c>
-      <c r="AR20">
-        <v>0.7605498842334635</v>
-      </c>
-      <c r="AS20">
-        <v>0.4458909783649156</v>
-      </c>
-      <c r="AT20">
-        <v>0.621639092134818</v>
-      </c>
-      <c r="AU20">
-        <v>0.5469773526883603</v>
+        <v>46387</v>
       </c>
       <c r="AV20">
-        <v>0.699220385288668</v>
+        <v>-0.1182685102698477</v>
       </c>
       <c r="AW20">
-        <v>0.699220385288668</v>
+        <v>-0.0722133730612029</v>
       </c>
       <c r="AX20">
-        <v>0.699220385288668</v>
+        <v>0.003172138479667908</v>
       </c>
       <c r="AY20">
-        <v>0.699220385288668</v>
+        <v>-0.05881133788823156</v>
       </c>
       <c r="AZ20">
-        <v>0.699220385288668</v>
+        <v>-0.1105236148505218</v>
       </c>
       <c r="BA20">
-        <v>0.699220385288668</v>
+        <v>0.07906106903616816</v>
       </c>
     </row>
     <row r="21" spans="1:53">
       <c r="A21" s="1">
-        <v>45657</v>
-      </c>
-      <c r="AN21">
-        <v>-0.05090004208089249</v>
-      </c>
-      <c r="AO21">
-        <v>-0.1077624852032888</v>
-      </c>
-      <c r="AP21">
-        <v>-0.08875904702143611</v>
-      </c>
-      <c r="AQ21">
-        <v>-0.1060546019570063</v>
-      </c>
-      <c r="AR21">
-        <v>-0.05891731780507392</v>
-      </c>
-      <c r="AS21">
-        <v>-0.1556869089359258</v>
-      </c>
-      <c r="AT21">
-        <v>-0.1830321574487703</v>
-      </c>
-      <c r="AU21">
-        <v>-0.3486394561975747</v>
-      </c>
-      <c r="AV21">
-        <v>-1.000055557176827</v>
-      </c>
-      <c r="AW21">
-        <v>-0.9698273264413304</v>
-      </c>
-      <c r="AX21">
-        <v>-0.6768900623516982</v>
-      </c>
-      <c r="AY21">
-        <v>-0.9251966500764763</v>
+        <v>46752</v>
       </c>
       <c r="AZ21">
-        <v>-0.850803046382087</v>
+        <v>-0.01859813021840573</v>
       </c>
       <c r="BA21">
-        <v>-0.850803046382087</v>
+        <v>0.05124360334194389</v>
       </c>
     </row>
     <row r="22" spans="1:53">
       <c r="A22" s="1">
-        <v>46022</v>
-      </c>
-      <c r="AR22">
-        <v>-0.04089427901038389</v>
-      </c>
-      <c r="AS22">
-        <v>-0.1133647393755433</v>
-      </c>
-      <c r="AT22">
-        <v>-0.0733182145321476</v>
-      </c>
-      <c r="AU22">
-        <v>-0.09266255584036154</v>
-      </c>
-      <c r="AV22">
-        <v>-0.08363380984689472</v>
-      </c>
-      <c r="AW22">
-        <v>-0.02526714717144829</v>
-      </c>
-      <c r="AX22">
-        <v>0.4053576788542124</v>
-      </c>
-      <c r="AY22">
-        <v>1.108275029474215</v>
-      </c>
-      <c r="AZ22">
-        <v>0.5724023773773013</v>
-      </c>
-      <c r="BA22">
-        <v>1.137079304717759</v>
-      </c>
-    </row>
-    <row r="23" spans="1:53">
-      <c r="A23" s="1">
-        <v>46387</v>
-      </c>
-      <c r="AV23">
-        <v>-0.1182685102698589</v>
-      </c>
-      <c r="AW23">
-        <v>-0.072213373061214</v>
-      </c>
-      <c r="AX23">
-        <v>0.003172138479667908</v>
-      </c>
-      <c r="AY23">
-        <v>-0.05881133788824267</v>
-      </c>
-      <c r="AZ23">
-        <v>-0.1105236148505218</v>
-      </c>
-      <c r="BA23">
-        <v>0.07906106903616816</v>
-      </c>
-    </row>
-    <row r="24" spans="1:53">
-      <c r="A24" s="1">
-        <v>46752</v>
-      </c>
-      <c r="AZ24">
-        <v>-0.01859813021839463</v>
-      </c>
-      <c r="BA24">
-        <v>0.05124360334189948</v>
-      </c>
-    </row>
-    <row r="25" spans="1:53">
-      <c r="A25" s="1">
         <v>47118</v>
       </c>
     </row>

--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_INVINV_AR_50_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_INVINV_AR_50_9.xlsx
@@ -369,13 +369,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA22"/>
+  <dimension ref="A1:BB22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:54">
       <c r="B1" s="1">
         <v>39400</v>
       </c>
@@ -532,13 +532,16 @@
       <c r="BA1" s="1">
         <v>45891</v>
       </c>
+      <c r="BB1" s="1">
+        <v>45986</v>
+      </c>
     </row>
-    <row r="2" spans="1:53">
+    <row r="2" spans="1:54">
       <c r="A2" s="1">
         <v>39813</v>
       </c>
     </row>
-    <row r="3" spans="1:53">
+    <row r="3" spans="1:54">
       <c r="A3" s="1">
         <v>40178</v>
       </c>
@@ -686,8 +689,11 @@
       <c r="BA3">
         <v>-0.6303298271467694</v>
       </c>
+      <c r="BB3">
+        <v>-0.6303298271467694</v>
+      </c>
     </row>
-    <row r="4" spans="1:53">
+    <row r="4" spans="1:54">
       <c r="A4" s="1">
         <v>40543</v>
       </c>
@@ -832,8 +838,11 @@
       <c r="BA4">
         <v>0.3824851463237522</v>
       </c>
+      <c r="BB4">
+        <v>0.3824851463237522</v>
+      </c>
     </row>
-    <row r="5" spans="1:53">
+    <row r="5" spans="1:54">
       <c r="A5" s="1">
         <v>40908</v>
       </c>
@@ -978,8 +987,11 @@
       <c r="BA5">
         <v>0.4942252260480062</v>
       </c>
+      <c r="BB5">
+        <v>0.4942252260480062</v>
+      </c>
     </row>
-    <row r="6" spans="1:53">
+    <row r="6" spans="1:54">
       <c r="A6" s="1">
         <v>41274</v>
       </c>
@@ -1124,8 +1136,11 @@
       <c r="BA6">
         <v>-0.8283953561833202</v>
       </c>
+      <c r="BB6">
+        <v>-0.8283953561833202</v>
+      </c>
     </row>
-    <row r="7" spans="1:53">
+    <row r="7" spans="1:54">
       <c r="A7" s="1">
         <v>41639</v>
       </c>
@@ -1264,8 +1279,11 @@
       <c r="BA7">
         <v>-0.1541135436267549</v>
       </c>
+      <c r="BB7">
+        <v>-0.1541135436267549</v>
+      </c>
     </row>
-    <row r="8" spans="1:53">
+    <row r="8" spans="1:54">
       <c r="A8" s="1">
         <v>42004</v>
       </c>
@@ -1398,8 +1416,11 @@
       <c r="BA8">
         <v>0.2992729818363626</v>
       </c>
+      <c r="BB8">
+        <v>0.2992729818363626</v>
+      </c>
     </row>
-    <row r="9" spans="1:53">
+    <row r="9" spans="1:54">
       <c r="A9" s="1">
         <v>42369</v>
       </c>
@@ -1526,8 +1547,11 @@
       <c r="BA9">
         <v>-0.6011708148489947</v>
       </c>
+      <c r="BB9">
+        <v>-0.6011708148489947</v>
+      </c>
     </row>
-    <row r="10" spans="1:53">
+    <row r="10" spans="1:54">
       <c r="A10" s="1">
         <v>42735</v>
       </c>
@@ -1648,8 +1672,11 @@
       <c r="BA10">
         <v>-0.2513629445286991</v>
       </c>
+      <c r="BB10">
+        <v>-0.2513629445286991</v>
+      </c>
     </row>
-    <row r="11" spans="1:53">
+    <row r="11" spans="1:54">
       <c r="A11" s="1">
         <v>43100</v>
       </c>
@@ -1764,8 +1791,11 @@
       <c r="BA11">
         <v>0.2729872858366011</v>
       </c>
+      <c r="BB11">
+        <v>0.2729872858366011</v>
+      </c>
     </row>
-    <row r="12" spans="1:53">
+    <row r="12" spans="1:54">
       <c r="A12" s="1">
         <v>43465</v>
       </c>
@@ -1874,8 +1904,11 @@
       <c r="BA12">
         <v>0.1243096661369014</v>
       </c>
+      <c r="BB12">
+        <v>0.1243096661369014</v>
+      </c>
     </row>
-    <row r="13" spans="1:53">
+    <row r="13" spans="1:54">
       <c r="A13" s="1">
         <v>43830</v>
       </c>
@@ -1978,8 +2011,11 @@
       <c r="BA13">
         <v>-0.4025146932836732</v>
       </c>
+      <c r="BB13">
+        <v>-0.4025146932836732</v>
+      </c>
     </row>
-    <row r="14" spans="1:53">
+    <row r="14" spans="1:54">
       <c r="A14" s="1">
         <v>44196</v>
       </c>
@@ -2073,8 +2109,11 @@
       <c r="BA14">
         <v>-0.9275935716973494</v>
       </c>
+      <c r="BB14">
+        <v>-0.9275935716973494</v>
+      </c>
     </row>
-    <row r="15" spans="1:53">
+    <row r="15" spans="1:54">
       <c r="A15" s="1">
         <v>44561</v>
       </c>
@@ -2156,8 +2195,11 @@
       <c r="BA15">
         <v>0.2398177392026746</v>
       </c>
+      <c r="BB15">
+        <v>0.2398177392026746</v>
+      </c>
     </row>
-    <row r="16" spans="1:53">
+    <row r="16" spans="1:54">
       <c r="A16" s="1">
         <v>44926</v>
       </c>
@@ -2227,8 +2269,11 @@
       <c r="BA16">
         <v>0.539177729005802</v>
       </c>
+      <c r="BB16">
+        <v>0.539177729005802</v>
+      </c>
     </row>
-    <row r="17" spans="1:53">
+    <row r="17" spans="1:54">
       <c r="A17" s="1">
         <v>45291</v>
       </c>
@@ -2286,8 +2331,11 @@
       <c r="BA17">
         <v>0.6992203852886458</v>
       </c>
+      <c r="BB17">
+        <v>0.6992203852886458</v>
+      </c>
     </row>
-    <row r="18" spans="1:53">
+    <row r="18" spans="1:54">
       <c r="A18" s="1">
         <v>45657</v>
       </c>
@@ -2333,8 +2381,11 @@
       <c r="BA18">
         <v>-0.850803046382087</v>
       </c>
+      <c r="BB18">
+        <v>-0.850803046382087</v>
+      </c>
     </row>
-    <row r="19" spans="1:53">
+    <row r="19" spans="1:54">
       <c r="A19" s="1">
         <v>46022</v>
       </c>
@@ -2368,8 +2419,11 @@
       <c r="BA19">
         <v>1.137079304717736</v>
       </c>
+      <c r="BB19">
+        <v>1.049317648994741</v>
+      </c>
     </row>
-    <row r="20" spans="1:53">
+    <row r="20" spans="1:54">
       <c r="A20" s="1">
         <v>46387</v>
       </c>
@@ -2391,8 +2445,11 @@
       <c r="BA20">
         <v>0.07906106903616816</v>
       </c>
+      <c r="BB20">
+        <v>0.07146359800258573</v>
+      </c>
     </row>
-    <row r="21" spans="1:53">
+    <row r="21" spans="1:54">
       <c r="A21" s="1">
         <v>46752</v>
       </c>
@@ -2402,8 +2459,11 @@
       <c r="BA21">
         <v>0.05124360334194389</v>
       </c>
+      <c r="BB21">
+        <v>0.02616837143805117</v>
+      </c>
     </row>
-    <row r="22" spans="1:53">
+    <row r="22" spans="1:54">
       <c r="A22" s="1">
         <v>47118</v>
       </c>
